--- a/Resource/WindDB2Info.xlsx
+++ b/Resource/WindDB2Info.xlsx
@@ -15,12 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8569" uniqueCount="3139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8570" uniqueCount="3140">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9962,6 +9961,10 @@
   </si>
   <si>
     <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263001000: 30 天, 263002000: 90 天, 263003000: 180 天, 263004000: 大事后 180 天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11105,8 +11108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1640" workbookViewId="0">
-      <selection activeCell="E1602" sqref="E1602"/>
+    <sheetView tabSelected="1" topLeftCell="E1479" workbookViewId="0">
+      <selection activeCell="F1510" sqref="F1510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -36841,7 +36844,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
         <v>1398</v>
       </c>
@@ -36858,7 +36861,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
         <v>1398</v>
       </c>
@@ -36875,7 +36878,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
         <v>2805</v>
       </c>
@@ -36892,7 +36895,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
         <v>2805</v>
       </c>
@@ -36909,7 +36912,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
         <v>2805</v>
       </c>
@@ -36926,7 +36929,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
         <v>2805</v>
       </c>
@@ -36942,8 +36945,11 @@
       <c r="E1510" t="s">
         <v>3067</v>
       </c>
-    </row>
-    <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1510" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
         <v>2805</v>
       </c>
@@ -36960,7 +36966,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
         <v>2805</v>
       </c>
@@ -36977,7 +36983,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
         <v>2805</v>
       </c>
@@ -36994,7 +37000,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
         <v>2805</v>
       </c>
@@ -37011,7 +37017,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
         <v>2805</v>
       </c>
@@ -37028,7 +37034,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
         <v>2805</v>
       </c>
@@ -37045,7 +37051,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
         <v>2805</v>
       </c>
@@ -37062,7 +37068,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
         <v>2805</v>
       </c>
@@ -37079,7 +37085,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
         <v>2805</v>
       </c>
@@ -37096,7 +37102,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
         <v>2805</v>
       </c>

--- a/Resource/WindDB2Info.xlsx
+++ b/Resource/WindDB2Info.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
     <sheet name="FactorInfo" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$E$710</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$77</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8838" uniqueCount="3259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8886" uniqueCount="3288">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8800,15 +8801,1575 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中国A股盈利预测汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareConsensusData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnalystConsensusTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测报告期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_report_dt</t>
+  </si>
+  <si>
+    <t>预测机构家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_est_inst</t>
+  </si>
+  <si>
+    <t>每股收益平均值(元)</t>
+  </si>
+  <si>
+    <t>eps_avg</t>
+  </si>
+  <si>
+    <t>主营业务收入平均值(万元)</t>
+  </si>
+  <si>
+    <t>main_bus_inc_avg</t>
+  </si>
+  <si>
+    <t>净利润平均值(万元)</t>
+  </si>
+  <si>
+    <t>net_profit_avg</t>
+  </si>
+  <si>
+    <t>息税前利润平均值(万元)</t>
+  </si>
+  <si>
+    <t>ebit_avg</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润平均值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda_avg</t>
+  </si>
+  <si>
+    <t>每股收益中值(元)</t>
+  </si>
+  <si>
+    <t>eps_median</t>
+  </si>
+  <si>
+    <t>主营业务收入中值(万元)</t>
+  </si>
+  <si>
+    <t>main_bus_inc_median</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润中值(万元)</t>
+  </si>
+  <si>
+    <t>net_profit_median</t>
+  </si>
+  <si>
+    <t>息税前利润中值(万元)</t>
+  </si>
+  <si>
+    <t>ebit_median</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润中值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda_median</t>
+  </si>
+  <si>
+    <t>综合值周期类型</t>
+  </si>
+  <si>
+    <t>consen_data_cycle_typ</t>
+  </si>
+  <si>
+    <t>每股收益标准差</t>
+  </si>
+  <si>
+    <t>eps_dev</t>
+  </si>
+  <si>
+    <t>主营业务收入标准差(万元)</t>
+  </si>
+  <si>
+    <t>main_bus_inc_dev</t>
+  </si>
+  <si>
+    <t>净利润标准差(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_dev</t>
+  </si>
+  <si>
+    <t>息税前利润标准差(万元)</t>
+  </si>
+  <si>
+    <t>ebit_dev</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润标准差(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda_dev</t>
+  </si>
+  <si>
+    <t>每股收益最大值</t>
+  </si>
+  <si>
+    <t>eps_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益最小值</t>
+  </si>
+  <si>
+    <t>eps_min</t>
+  </si>
+  <si>
+    <t>主营业务收入最大值(万元)</t>
+  </si>
+  <si>
+    <t>main_bus_inc_max</t>
+  </si>
+  <si>
+    <t>主营业务收入最小值(万元)</t>
+  </si>
+  <si>
+    <t>main_bus_inc_min</t>
+  </si>
+  <si>
+    <t>中国A股盈利预测汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务收入调高家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_bus_inc_upgrade</t>
+  </si>
+  <si>
+    <t>主营业务收入调低家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_bus_inc_downgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务收入维持家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_bus_inc_maintain</t>
+  </si>
+  <si>
+    <t>净利润最大值（万元)</t>
+  </si>
+  <si>
+    <t>net_profit_max</t>
+  </si>
+  <si>
+    <t>净利润最小值（万元)</t>
+  </si>
+  <si>
+    <t>net_profit_min</t>
+  </si>
+  <si>
+    <t>净利润调高家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_upgrade</t>
+  </si>
+  <si>
+    <t>净利润调低家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_downgrade</t>
+  </si>
+  <si>
+    <t>净利润维持家数（与一个月前相比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_maintain</t>
+  </si>
+  <si>
+    <t>每股现金流平均值</t>
+  </si>
+  <si>
+    <t>s_est_avgcps</t>
+  </si>
+  <si>
+    <t>每股现金流中值</t>
+  </si>
+  <si>
+    <t>s_est_mediancps</t>
+  </si>
+  <si>
+    <t>每股现金流标准差</t>
+  </si>
+  <si>
+    <t>s_est_stdcps</t>
+  </si>
+  <si>
+    <t>每股现金流最大值</t>
+  </si>
+  <si>
+    <t>s_est_maxcps</t>
+  </si>
+  <si>
+    <t>每股现金流最小值</t>
+  </si>
+  <si>
+    <t>s_est_mincps</t>
+  </si>
+  <si>
+    <t>每股股利平均值</t>
+  </si>
+  <si>
+    <t>s_est_avgdps</t>
+  </si>
+  <si>
+    <t>每股股利中值</t>
+  </si>
+  <si>
+    <t>s_est_mediandps</t>
+  </si>
+  <si>
+    <t>每股股利标准差</t>
+  </si>
+  <si>
+    <t>s_est_stddps</t>
+  </si>
+  <si>
+    <t>每股股利最大值</t>
+  </si>
+  <si>
+    <t>s_est_maxdps</t>
+  </si>
+  <si>
+    <t>每股股利最小值</t>
+  </si>
+  <si>
+    <t>s_est_mindps</t>
+  </si>
+  <si>
+    <t>息税前利润最大值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebit_max</t>
+  </si>
+  <si>
+    <t>息税前利润最小值(万元)</t>
+  </si>
+  <si>
+    <t>ebit_min</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润最大值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda_max</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润最小值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ebitda_min</t>
+  </si>
+  <si>
+    <t>每股净资产平均值</t>
+  </si>
+  <si>
+    <t>s_est_avgbps</t>
+  </si>
+  <si>
+    <t>每股净资产中值</t>
+  </si>
+  <si>
+    <t>s_est_medianbps</t>
+  </si>
+  <si>
+    <t>每股净资产标准差</t>
+  </si>
+  <si>
+    <t>s_est_stdbps</t>
+  </si>
+  <si>
+    <t>每股净资产最大值</t>
+  </si>
+  <si>
+    <t>s_est_maxbps</t>
+  </si>
+  <si>
+    <t>每股净资产最小值</t>
+  </si>
+  <si>
+    <t>s_est_minbps</t>
+  </si>
+  <si>
+    <t>利润总额平均值(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_avgebt</t>
+  </si>
+  <si>
+    <t>利润总额中值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_medianebt</t>
+  </si>
+  <si>
+    <t>利润总额标准差(万元)</t>
+  </si>
+  <si>
+    <t>s_est_stdebt</t>
+  </si>
+  <si>
+    <t>利润总额最大值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_maxebt</t>
+  </si>
+  <si>
+    <t>利润总额最小值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_minebt</t>
+  </si>
+  <si>
+    <t>总资产收益率平均值（%）</t>
+  </si>
+  <si>
+    <t>s_est_avgroa</t>
+  </si>
+  <si>
+    <t>总资产收益率中值（%）</t>
+  </si>
+  <si>
+    <t>s_est_medianroa</t>
+  </si>
+  <si>
+    <t>总资产收益率标准差（%）</t>
+  </si>
+  <si>
+    <t>s_est_stdroa</t>
+  </si>
+  <si>
+    <t>总资产收益率最大值（%）</t>
+  </si>
+  <si>
+    <t>s_est_maxroa</t>
+  </si>
+  <si>
+    <t>总资产收益率最小值（%）</t>
+  </si>
+  <si>
+    <t>s_est_minroa</t>
+  </si>
+  <si>
+    <t>净资产收益率平均值（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_avgroe</t>
+  </si>
+  <si>
+    <t>净资产收益率中值（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_medianroe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净资产收益率标准差（%）</t>
+  </si>
+  <si>
+    <t>s_est_stdroe</t>
+  </si>
+  <si>
+    <t>净资产收益率最大值（%）</t>
+  </si>
+  <si>
+    <t>s_est_maxroe</t>
+  </si>
+  <si>
+    <t>净资产收益率最小值（%）</t>
+  </si>
+  <si>
+    <t>s_est_minroe</t>
+  </si>
+  <si>
+    <t>营业利润平均值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_avgoperatingprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润中值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_medianoperatingprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润标准差(万元)</t>
+  </si>
+  <si>
+    <t>s_est_stdoperatingprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润最大值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_maxoperatingprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业利润最小值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_minoperatingprofit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股收益预测家数</t>
+  </si>
+  <si>
+    <t>s_est_epsinstnum</t>
+  </si>
+  <si>
+    <t>主营业务收入预测家数</t>
+  </si>
+  <si>
+    <t>s_est_mainbusincinstnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净利润预测家数</t>
+  </si>
+  <si>
+    <t>s_est_netprofitinstnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股现金流预测家数</t>
+  </si>
+  <si>
+    <t>s_est_cpsinstnum</t>
+  </si>
+  <si>
+    <t>每股股利预测家数</t>
+  </si>
+  <si>
+    <t>s_est_dpsinstnum</t>
+  </si>
+  <si>
+    <t>息税前利润预测家数</t>
+  </si>
+  <si>
+    <t>s_est_ebitinstnum</t>
+  </si>
+  <si>
+    <t>息税折旧摊销前利润预测家数</t>
+  </si>
+  <si>
+    <t>s_est_ebitdainstnum</t>
+  </si>
+  <si>
+    <t>每股净资产预测家数</t>
+  </si>
+  <si>
+    <t>s_est_bpsinstnum</t>
+  </si>
+  <si>
+    <t>利润总额预测家数</t>
+  </si>
+  <si>
+    <t>s_est_ebtinstnum</t>
+  </si>
+  <si>
+    <t>总资产收益率预测家数</t>
+  </si>
+  <si>
+    <t>s_est_roainstnum</t>
+  </si>
+  <si>
+    <t>净资产资产收益率预测家数</t>
+  </si>
+  <si>
+    <t>s_est_roeinstnum</t>
+  </si>
+  <si>
+    <t>营业利润预测家数</t>
+  </si>
+  <si>
+    <t>s_est_oprofitinstnum</t>
+  </si>
+  <si>
+    <t>营业成本及附加平均值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_avgoc</t>
+  </si>
+  <si>
+    <t>营业成本及附加中值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_mediaoc</t>
+  </si>
+  <si>
+    <t>营业成本及附加标准差(万元)</t>
+  </si>
+  <si>
+    <t>s_est_stoc</t>
+  </si>
+  <si>
+    <t>营业成本及附加最大值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_maxoc</t>
+  </si>
+  <si>
+    <t>营业成本及附加最小值(万元)</t>
+  </si>
+  <si>
+    <t>s_est_minoc</t>
+  </si>
+  <si>
+    <t>营业成本及附加预测家数</t>
+  </si>
+  <si>
+    <t>s_est_ocinstnum</t>
+  </si>
+  <si>
+    <t>预测基准股本综合值</t>
+  </si>
+  <si>
+    <t>s_est_baseshare</t>
+  </si>
+  <si>
+    <t>预测年度类型</t>
+  </si>
+  <si>
+    <t>s_est_yeartype</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测日期</t>
+  </si>
+  <si>
+    <t>est_dt</t>
+  </si>
+  <si>
+    <t>中国A股盈利预测明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究机构名称</t>
+  </si>
+  <si>
+    <t>research_inst_name</t>
+  </si>
+  <si>
+    <t>分析师名称</t>
+  </si>
+  <si>
+    <t>analyst_name</t>
+  </si>
+  <si>
+    <t>预测报告期</t>
+  </si>
+  <si>
+    <t>reporting_period</t>
+  </si>
+  <si>
+    <t>中国A股盈利预测明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测每股收益(摊薄)(元)</t>
+  </si>
+  <si>
+    <t>est_eps_diluted</t>
+  </si>
+  <si>
+    <t>est_net_profit</t>
+  </si>
+  <si>
+    <t>预测主营业务收入(万元)</t>
+  </si>
+  <si>
+    <t>est_main_bus_inc</t>
+  </si>
+  <si>
+    <t>预测息税前利润(万元)</t>
+  </si>
+  <si>
+    <t>est_ebit</t>
+  </si>
+  <si>
+    <t>预测息税折旧摊销前利润(万元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>est_ebitda</t>
+  </si>
+  <si>
+    <t>预测基准股本(万股)</t>
+  </si>
+  <si>
+    <t>est_base_cap</t>
+  </si>
+  <si>
+    <t>公告日期(内部)</t>
+  </si>
+  <si>
+    <t>预测每股现金流</t>
+  </si>
+  <si>
+    <t>s_est_cps</t>
+  </si>
+  <si>
+    <t>预测每股股利</t>
+  </si>
+  <si>
+    <t>s_est_dps</t>
+  </si>
+  <si>
+    <t>预测每股净资产</t>
+  </si>
+  <si>
+    <t>s_est_bps</t>
+  </si>
+  <si>
+    <t>预测利润总额（万元）</t>
+  </si>
+  <si>
+    <t>s_est_ebt</t>
+  </si>
+  <si>
+    <t>预测总资产收益率</t>
+  </si>
+  <si>
+    <t>s_est_roa</t>
+  </si>
+  <si>
+    <t>预测净资产收益率</t>
+  </si>
+  <si>
+    <t>s_est_roe</t>
+  </si>
+  <si>
+    <t>预测营业利润(万元）</t>
+  </si>
+  <si>
+    <t>s_est_oprofit</t>
+  </si>
+  <si>
+    <t>预测每股收益(稀释)(元)</t>
+  </si>
+  <si>
+    <t>s_est_epsdiluted</t>
+  </si>
+  <si>
+    <t>预测每股收益(基本)(元)</t>
+  </si>
+  <si>
+    <t>s_est_epsbasic</t>
+  </si>
+  <si>
+    <t>预测营业成本及附加（万元）</t>
+  </si>
+  <si>
+    <t>s_est_oc</t>
+  </si>
+  <si>
+    <t>预测净利润（换算）（万元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_npcal</t>
+  </si>
+  <si>
+    <t>预测每股收益（换算）</t>
+  </si>
+  <si>
+    <t>s_est_epscal</t>
+  </si>
+  <si>
+    <t>预测净利润调整比率</t>
+  </si>
+  <si>
+    <t>s_est_nprate</t>
+  </si>
+  <si>
+    <t>预测EPS调整比率</t>
+  </si>
+  <si>
+    <t>s_est_epsrate</t>
+  </si>
+  <si>
+    <t>预测市盈率</t>
+  </si>
+  <si>
+    <t>s_est_pe</t>
+  </si>
+  <si>
+    <t>预测市净率</t>
+  </si>
+  <si>
+    <t>s_est_pb</t>
+  </si>
+  <si>
+    <t>预测EV/EBITDA</t>
+  </si>
+  <si>
+    <t>s_est_EVEBITDA</t>
+  </si>
+  <si>
+    <t>预测股息率</t>
+  </si>
+  <si>
+    <t>s_est_dividendyield</t>
+  </si>
+  <si>
+    <t>预测有效截止</t>
+  </si>
+  <si>
+    <t>s_est_enddate</t>
+  </si>
+  <si>
+    <t>预测主营业务利润</t>
+  </si>
+  <si>
+    <t>s_est_ope</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Institute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analyst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rating_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_wrating_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级机构数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_wrating_instnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调高家数(相比一月前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_wrating_upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调低家数(相比一月前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持家数(相比一月前)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增持家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中性家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减持家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_wrating_numofunderperform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出家数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致预测目标价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价预测机构数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_institute</t>
+  </si>
+  <si>
+    <t>s_est_ratinganalyst</t>
+  </si>
+  <si>
+    <t>评级日期</t>
+  </si>
+  <si>
+    <t>s_est_estnewtime_inst</t>
+  </si>
+  <si>
+    <t>s_est_scorerating_inst</t>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前次标准评级</t>
+  </si>
+  <si>
+    <t>s_est_prescorerating_inst</t>
+  </si>
+  <si>
+    <t>本次最低目标价</t>
+  </si>
+  <si>
+    <t>s_est_lowprice_inst</t>
+  </si>
+  <si>
+    <t>本次最高目标价</t>
+  </si>
+  <si>
+    <t>s_est_highprice_inst</t>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前次最低目标价</t>
+  </si>
+  <si>
+    <t>s_est_prelowprice_inst</t>
+  </si>
+  <si>
+    <t>前次最高目标价</t>
+  </si>
+  <si>
+    <t>s_est_prehighprice_inst</t>
+  </si>
+  <si>
+    <t>公告日期(内部)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_est_rating_inst</t>
+  </si>
+  <si>
+    <t>前次评级</t>
+  </si>
+  <si>
+    <t>s_est_prerating_inst</t>
+  </si>
+  <si>
+    <t>报告标题</t>
+  </si>
+  <si>
+    <t>s_est_report_title</t>
+  </si>
+  <si>
+    <t>报告类别</t>
+  </si>
+  <si>
+    <t>s_est_report_type</t>
+  </si>
+  <si>
+    <t>分析师id</t>
+  </si>
+  <si>
+    <t>s_est_ratinganalystid</t>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评级变动方向</t>
+  </si>
+  <si>
+    <t>s_rating_change</t>
+  </si>
+  <si>
+    <t>评级有效截止日</t>
+  </si>
+  <si>
+    <t>s_rating_validenddt</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263001000: 30 天, 263002000: 90 天, 263003000: 180 天, 263004000: 大事后 180 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券交易所债券行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondFCTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondFValuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondFThirdPartyValuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondCalendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondPrices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondValuation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_interestfrequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券付息和兑付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondPayment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DividendTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DividendTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付息日</t>
+  </si>
+  <si>
+    <t>中国债券付息和兑付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_div_exdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_paymentdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_principalaftertax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_announcementdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共同基金分红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券现金流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_windcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_carrydate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_enddate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_couponrate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER(22,6) </t>
+  </si>
+  <si>
+    <t>票面利率(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_paymentdate </t>
+  </si>
+  <si>
+    <t>现金流发放日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_paymentinterest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_paymentparvalue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_paymentsum </t>
+  </si>
+  <si>
+    <t>期末每百元面额应付本金</t>
+  </si>
+  <si>
+    <t>期末每百元面额应付利息</t>
+  </si>
+  <si>
+    <t>期末每百元面额现金流合计</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondPRepoDescription</t>
+  </si>
+  <si>
+    <t>FeatureTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_subjectwindcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_repo_type </t>
+  </si>
+  <si>
+    <t xml:space="preserve">回购类型 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_repo_days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER(5,0) </t>
+  </si>
+  <si>
+    <t>回购天数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_repo_firstdate </t>
+  </si>
+  <si>
+    <t>首次交易日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_info_repo_pcntbond </t>
+  </si>
+  <si>
+    <t>履约金比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(50) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_exchmarket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(10) </t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标的债券Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:封闭式; 2:买断式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE:上交所;SZSE:深交所;NIB:银行间债券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券回购基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券回购基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券回购标准券折算率</t>
+  </si>
+  <si>
+    <t>CBondConversionRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">b_cvn_startdate </t>
+  </si>
+  <si>
+    <t>开始适用日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_cvn_enddate </t>
+  </si>
+  <si>
+    <t>结束适用日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_cvn_rateofstdbnd </t>
+  </si>
+  <si>
+    <t>折算比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b_cvn_cvntperhundred </t>
+  </si>
+  <si>
+    <t xml:space="preserve">折合标准券 </t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券回购标准券折算率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每张债券折合标准券金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券指数权重</t>
+  </si>
+  <si>
+    <t>CBIndexWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券指数权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_con_windcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade_dt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i_weight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER(20,8) </t>
+  </si>
+  <si>
+    <t>指数Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成份债Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券指数基本资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBIndexDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_compname </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR2(100) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_index_baseper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_index_basept </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_listdate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_info_index_weightsrule </t>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE:上交所;SZSE:深交所;NIB:银行间市场;Others:其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:自由流通股本;2:总股本;3:分级靠档 1;4:分级靠档 2;5:新华富时;6:MSCI;7:沪深 300 反算权数;8:分级靠档 3;9:基本面 50 反算权数;10:等权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券指数成分</t>
+  </si>
+  <si>
+    <t>CBIndexMembers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstituentTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">s_con_indate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_con_outdate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cur_sign </t>
+  </si>
+  <si>
+    <t xml:space="preserve">最新标志 </t>
+  </si>
+  <si>
+    <t>成份股Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是;0:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券指数成分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股中信指数成份股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均价(VWAP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券应计利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已计息时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每手付息数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债权登记日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每手兑付本金数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税后每手付息数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除息日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_interestperthousands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_principalperthousands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国债券交易所债券行情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondAccruedInterest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_windcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_exchmarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_issuer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_info_issuertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnalystEstDetailTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnalystRatingDetailTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股投资评级明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>中国A股交易日历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国A股盈利预测汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AShareConsensusData</t>
+    <t>本次标准评级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareStockRatingConsus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareStockRating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareEarningEst</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8816,850 +10377,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AShareEarningEst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AShareStockRating</t>
-  </si>
-  <si>
-    <t>AnalystConsensusTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnalystDetailTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnalystDetailTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测报告期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>est_report_dt</t>
-  </si>
-  <si>
-    <t>预测机构家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_est_inst</t>
-  </si>
-  <si>
-    <t>每股收益平均值(元)</t>
-  </si>
-  <si>
-    <t>eps_avg</t>
-  </si>
-  <si>
-    <t>主营业务收入平均值(万元)</t>
-  </si>
-  <si>
-    <t>main_bus_inc_avg</t>
-  </si>
-  <si>
-    <t>净利润平均值(万元)</t>
-  </si>
-  <si>
-    <t>net_profit_avg</t>
-  </si>
-  <si>
-    <t>息税前利润平均值(万元)</t>
-  </si>
-  <si>
-    <t>ebit_avg</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润平均值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda_avg</t>
-  </si>
-  <si>
-    <t>每股收益中值(元)</t>
-  </si>
-  <si>
-    <t>eps_median</t>
-  </si>
-  <si>
-    <t>主营业务收入中值(万元)</t>
-  </si>
-  <si>
-    <t>main_bus_inc_median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润中值(万元)</t>
-  </si>
-  <si>
-    <t>net_profit_median</t>
-  </si>
-  <si>
-    <t>息税前利润中值(万元)</t>
-  </si>
-  <si>
-    <t>ebit_median</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润中值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda_median</t>
-  </si>
-  <si>
-    <t>综合值周期类型</t>
-  </si>
-  <si>
-    <t>consen_data_cycle_typ</t>
-  </si>
-  <si>
-    <t>每股收益标准差</t>
-  </si>
-  <si>
-    <t>eps_dev</t>
-  </si>
-  <si>
-    <t>主营业务收入标准差(万元)</t>
-  </si>
-  <si>
-    <t>main_bus_inc_dev</t>
-  </si>
-  <si>
-    <t>净利润标准差(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_profit_dev</t>
-  </si>
-  <si>
-    <t>息税前利润标准差(万元)</t>
-  </si>
-  <si>
-    <t>ebit_dev</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润标准差(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda_dev</t>
-  </si>
-  <si>
-    <t>每股收益最大值</t>
-  </si>
-  <si>
-    <t>eps_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股收益最小值</t>
-  </si>
-  <si>
-    <t>eps_min</t>
-  </si>
-  <si>
-    <t>主营业务收入最大值(万元)</t>
-  </si>
-  <si>
-    <t>main_bus_inc_max</t>
-  </si>
-  <si>
-    <t>主营业务收入最小值(万元)</t>
-  </si>
-  <si>
-    <t>main_bus_inc_min</t>
-  </si>
-  <si>
-    <t>中国A股盈利预测汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营业务收入调高家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_bus_inc_upgrade</t>
-  </si>
-  <si>
-    <t>主营业务收入调低家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_bus_inc_downgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营业务收入维持家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main_bus_inc_maintain</t>
-  </si>
-  <si>
-    <t>净利润最大值（万元)</t>
-  </si>
-  <si>
-    <t>net_profit_max</t>
-  </si>
-  <si>
-    <t>净利润最小值（万元)</t>
-  </si>
-  <si>
-    <t>net_profit_min</t>
-  </si>
-  <si>
-    <t>净利润调高家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_profit_upgrade</t>
-  </si>
-  <si>
-    <t>净利润调低家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_profit_downgrade</t>
-  </si>
-  <si>
-    <t>净利润维持家数（与一个月前相比）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>net_profit_maintain</t>
-  </si>
-  <si>
-    <t>每股现金流平均值</t>
-  </si>
-  <si>
-    <t>s_est_avgcps</t>
-  </si>
-  <si>
-    <t>每股现金流中值</t>
-  </si>
-  <si>
-    <t>s_est_mediancps</t>
-  </si>
-  <si>
-    <t>每股现金流标准差</t>
-  </si>
-  <si>
-    <t>s_est_stdcps</t>
-  </si>
-  <si>
-    <t>每股现金流最大值</t>
-  </si>
-  <si>
-    <t>s_est_maxcps</t>
-  </si>
-  <si>
-    <t>每股现金流最小值</t>
-  </si>
-  <si>
-    <t>s_est_mincps</t>
-  </si>
-  <si>
-    <t>每股股利平均值</t>
-  </si>
-  <si>
-    <t>s_est_avgdps</t>
-  </si>
-  <si>
-    <t>每股股利中值</t>
-  </si>
-  <si>
-    <t>s_est_mediandps</t>
-  </si>
-  <si>
-    <t>每股股利标准差</t>
-  </si>
-  <si>
-    <t>s_est_stddps</t>
-  </si>
-  <si>
-    <t>每股股利最大值</t>
-  </si>
-  <si>
-    <t>s_est_maxdps</t>
-  </si>
-  <si>
-    <t>每股股利最小值</t>
-  </si>
-  <si>
-    <t>s_est_mindps</t>
-  </si>
-  <si>
-    <t>息税前利润最大值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebit_max</t>
-  </si>
-  <si>
-    <t>息税前利润最小值(万元)</t>
-  </si>
-  <si>
-    <t>ebit_min</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润最大值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda_max</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润最小值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ebitda_min</t>
-  </si>
-  <si>
-    <t>每股净资产平均值</t>
-  </si>
-  <si>
-    <t>s_est_avgbps</t>
-  </si>
-  <si>
-    <t>每股净资产中值</t>
-  </si>
-  <si>
-    <t>s_est_medianbps</t>
-  </si>
-  <si>
-    <t>每股净资产标准差</t>
-  </si>
-  <si>
-    <t>s_est_stdbps</t>
-  </si>
-  <si>
-    <t>每股净资产最大值</t>
-  </si>
-  <si>
-    <t>s_est_maxbps</t>
-  </si>
-  <si>
-    <t>每股净资产最小值</t>
-  </si>
-  <si>
-    <t>s_est_minbps</t>
-  </si>
-  <si>
-    <t>利润总额平均值(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_avgebt</t>
-  </si>
-  <si>
-    <t>利润总额中值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_medianebt</t>
-  </si>
-  <si>
-    <t>利润总额标准差(万元)</t>
-  </si>
-  <si>
-    <t>s_est_stdebt</t>
-  </si>
-  <si>
-    <t>利润总额最大值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_maxebt</t>
-  </si>
-  <si>
-    <t>利润总额最小值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_minebt</t>
-  </si>
-  <si>
-    <t>总资产收益率平均值（%）</t>
-  </si>
-  <si>
-    <t>s_est_avgroa</t>
-  </si>
-  <si>
-    <t>总资产收益率中值（%）</t>
-  </si>
-  <si>
-    <t>s_est_medianroa</t>
-  </si>
-  <si>
-    <t>总资产收益率标准差（%）</t>
-  </si>
-  <si>
-    <t>s_est_stdroa</t>
-  </si>
-  <si>
-    <t>总资产收益率最大值（%）</t>
-  </si>
-  <si>
-    <t>s_est_maxroa</t>
-  </si>
-  <si>
-    <t>总资产收益率最小值（%）</t>
-  </si>
-  <si>
-    <t>s_est_minroa</t>
-  </si>
-  <si>
-    <t>净资产收益率平均值（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_avgroe</t>
-  </si>
-  <si>
-    <t>净资产收益率中值（%）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_medianroe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净资产收益率标准差（%）</t>
-  </si>
-  <si>
-    <t>s_est_stdroe</t>
-  </si>
-  <si>
-    <t>净资产收益率最大值（%）</t>
-  </si>
-  <si>
-    <t>s_est_maxroe</t>
-  </si>
-  <si>
-    <t>净资产收益率最小值（%）</t>
-  </si>
-  <si>
-    <t>s_est_minroe</t>
-  </si>
-  <si>
-    <t>营业利润平均值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_avgoperatingprofit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润中值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_medianoperatingprofit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润标准差(万元)</t>
-  </si>
-  <si>
-    <t>s_est_stdoperatingprofit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润最大值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_maxoperatingprofit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业利润最小值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_minoperatingprofit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股收益预测家数</t>
-  </si>
-  <si>
-    <t>s_est_epsinstnum</t>
-  </si>
-  <si>
-    <t>主营业务收入预测家数</t>
-  </si>
-  <si>
-    <t>s_est_mainbusincinstnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润预测家数</t>
-  </si>
-  <si>
-    <t>s_est_netprofitinstnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股现金流预测家数</t>
-  </si>
-  <si>
-    <t>s_est_cpsinstnum</t>
-  </si>
-  <si>
-    <t>每股股利预测家数</t>
-  </si>
-  <si>
-    <t>s_est_dpsinstnum</t>
-  </si>
-  <si>
-    <t>息税前利润预测家数</t>
-  </si>
-  <si>
-    <t>s_est_ebitinstnum</t>
-  </si>
-  <si>
-    <t>息税折旧摊销前利润预测家数</t>
-  </si>
-  <si>
-    <t>s_est_ebitdainstnum</t>
-  </si>
-  <si>
-    <t>每股净资产预测家数</t>
-  </si>
-  <si>
-    <t>s_est_bpsinstnum</t>
-  </si>
-  <si>
-    <t>利润总额预测家数</t>
-  </si>
-  <si>
-    <t>s_est_ebtinstnum</t>
-  </si>
-  <si>
-    <t>总资产收益率预测家数</t>
-  </si>
-  <si>
-    <t>s_est_roainstnum</t>
-  </si>
-  <si>
-    <t>净资产资产收益率预测家数</t>
-  </si>
-  <si>
-    <t>s_est_roeinstnum</t>
-  </si>
-  <si>
-    <t>营业利润预测家数</t>
-  </si>
-  <si>
-    <t>s_est_oprofitinstnum</t>
-  </si>
-  <si>
-    <t>营业成本及附加平均值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_avgoc</t>
-  </si>
-  <si>
-    <t>营业成本及附加中值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_mediaoc</t>
-  </si>
-  <si>
-    <t>营业成本及附加标准差(万元)</t>
-  </si>
-  <si>
-    <t>s_est_stoc</t>
-  </si>
-  <si>
-    <t>营业成本及附加最大值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_maxoc</t>
-  </si>
-  <si>
-    <t>营业成本及附加最小值(万元)</t>
-  </si>
-  <si>
-    <t>s_est_minoc</t>
-  </si>
-  <si>
-    <t>营业成本及附加预测家数</t>
-  </si>
-  <si>
-    <t>s_est_ocinstnum</t>
-  </si>
-  <si>
-    <t>预测基准股本综合值</t>
-  </si>
-  <si>
-    <t>s_est_baseshare</t>
-  </si>
-  <si>
-    <t>预测年度类型</t>
-  </si>
-  <si>
-    <t>s_est_yeartype</t>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测日期</t>
-  </si>
-  <si>
-    <t>est_dt</t>
-  </si>
-  <si>
-    <t>中国A股盈利预测明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究机构名称</t>
-  </si>
-  <si>
-    <t>research_inst_name</t>
-  </si>
-  <si>
-    <t>分析师名称</t>
-  </si>
-  <si>
-    <t>analyst_name</t>
-  </si>
-  <si>
-    <t>预测报告期</t>
-  </si>
-  <si>
-    <t>reporting_period</t>
-  </si>
-  <si>
-    <t>中国A股盈利预测明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预测每股收益(摊薄)(元)</t>
-  </si>
-  <si>
-    <t>est_eps_diluted</t>
-  </si>
-  <si>
     <t>预测净利润(万元)</t>
-  </si>
-  <si>
-    <t>est_net_profit</t>
-  </si>
-  <si>
-    <t>预测主营业务收入(万元)</t>
-  </si>
-  <si>
-    <t>est_main_bus_inc</t>
-  </si>
-  <si>
-    <t>预测息税前利润(万元)</t>
-  </si>
-  <si>
-    <t>est_ebit</t>
-  </si>
-  <si>
-    <t>预测息税折旧摊销前利润(万元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>est_ebitda</t>
-  </si>
-  <si>
-    <t>预测基准股本(万股)</t>
-  </si>
-  <si>
-    <t>est_base_cap</t>
-  </si>
-  <si>
-    <t>公告日期(内部)</t>
-  </si>
-  <si>
-    <t>预测每股现金流</t>
-  </si>
-  <si>
-    <t>s_est_cps</t>
-  </si>
-  <si>
-    <t>预测每股股利</t>
-  </si>
-  <si>
-    <t>s_est_dps</t>
-  </si>
-  <si>
-    <t>预测每股净资产</t>
-  </si>
-  <si>
-    <t>s_est_bps</t>
-  </si>
-  <si>
-    <t>预测利润总额（万元）</t>
-  </si>
-  <si>
-    <t>s_est_ebt</t>
-  </si>
-  <si>
-    <t>预测总资产收益率</t>
-  </si>
-  <si>
-    <t>s_est_roa</t>
-  </si>
-  <si>
-    <t>预测净资产收益率</t>
-  </si>
-  <si>
-    <t>s_est_roe</t>
-  </si>
-  <si>
-    <t>预测营业利润(万元）</t>
-  </si>
-  <si>
-    <t>s_est_oprofit</t>
-  </si>
-  <si>
-    <t>预测每股收益(稀释)(元)</t>
-  </si>
-  <si>
-    <t>s_est_epsdiluted</t>
-  </si>
-  <si>
-    <t>预测每股收益(基本)(元)</t>
-  </si>
-  <si>
-    <t>s_est_epsbasic</t>
-  </si>
-  <si>
-    <t>预测营业成本及附加（万元）</t>
-  </si>
-  <si>
-    <t>s_est_oc</t>
-  </si>
-  <si>
-    <t>预测净利润（换算）（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_npcal</t>
-  </si>
-  <si>
-    <t>预测每股收益（换算）</t>
-  </si>
-  <si>
-    <t>s_est_epscal</t>
-  </si>
-  <si>
-    <t>预测净利润调整比率</t>
-  </si>
-  <si>
-    <t>s_est_nprate</t>
-  </si>
-  <si>
-    <t>预测EPS调整比率</t>
-  </si>
-  <si>
-    <t>s_est_epsrate</t>
-  </si>
-  <si>
-    <t>预测市盈率</t>
-  </si>
-  <si>
-    <t>s_est_pe</t>
-  </si>
-  <si>
-    <t>预测市净率</t>
-  </si>
-  <si>
-    <t>s_est_pb</t>
-  </si>
-  <si>
-    <t>预测EV/EBITDA</t>
-  </si>
-  <si>
-    <t>s_est_EVEBITDA</t>
-  </si>
-  <si>
-    <t>预测股息率</t>
-  </si>
-  <si>
-    <t>s_est_dividendyield</t>
-  </si>
-  <si>
-    <t>预测有效截止</t>
-  </si>
-  <si>
-    <t>s_est_enddate</t>
-  </si>
-  <si>
-    <t>预测主营业务利润</t>
-  </si>
-  <si>
-    <t>s_est_ope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S:特别处理(ST)</t>
+  </si>
+  <si>
+    <t>Z:暂停上市</t>
+  </si>
+  <si>
+    <t>P:特别转让服务</t>
+  </si>
+  <si>
+    <t>(PT)</t>
+  </si>
+  <si>
+    <t>L:退市整理</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>s_type_st</t>
+  </si>
+  <si>
+    <t>特别处理类型</t>
+  </si>
+  <si>
+    <t>实施日期</t>
+  </si>
+  <si>
+    <t>撤销日期</t>
+  </si>
+  <si>
+    <t>Wind代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股特别处理</t>
+  </si>
+  <si>
+    <t>中国A股特别处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>因子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ReportDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Institute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analyst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReportDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capital</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rating_dt</t>
+    <t>S:特别处理(ST);Z:暂停上市;P:特别转让服务(PT);L:退市整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9667,221 +10465,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合评级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_wrating_avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(20,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级机构数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_wrating_instnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(20,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调高家数(相比一月前)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_wrating_upgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调低家数(相比一月前)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维持家数(相比一月前)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增持家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(20,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中性家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减持家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_wrating_numofunderperform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卖出家数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一致预测目标价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标价预测机构数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股投资评级明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_est_institute</t>
-  </si>
-  <si>
-    <t>s_est_ratinganalyst</t>
-  </si>
-  <si>
-    <t>评级日期</t>
-  </si>
-  <si>
-    <t>s_est_estnewtime_inst</t>
-  </si>
-  <si>
-    <t>本次标准评级</t>
-  </si>
-  <si>
-    <t>s_est_scorerating_inst</t>
-  </si>
-  <si>
-    <t>中国A股投资评级明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前次标准评级</t>
-  </si>
-  <si>
-    <t>s_est_prescorerating_inst</t>
-  </si>
-  <si>
-    <t>本次最低目标价</t>
-  </si>
-  <si>
-    <t>s_est_lowprice_inst</t>
-  </si>
-  <si>
-    <t>本次最高目标价</t>
-  </si>
-  <si>
-    <t>s_est_highprice_inst</t>
-  </si>
-  <si>
-    <t>中国A股投资评级明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前次最低目标价</t>
-  </si>
-  <si>
-    <t>s_est_prelowprice_inst</t>
-  </si>
-  <si>
-    <t>前次最高目标价</t>
-  </si>
-  <si>
-    <t>s_est_prehighprice_inst</t>
-  </si>
-  <si>
-    <t>公告日期(内部)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次评级</t>
-  </si>
-  <si>
-    <t>s_est_rating_inst</t>
-  </si>
-  <si>
-    <t>前次评级</t>
-  </si>
-  <si>
-    <t>s_est_prerating_inst</t>
-  </si>
-  <si>
-    <t>报告标题</t>
-  </si>
-  <si>
-    <t>s_est_report_title</t>
-  </si>
-  <si>
-    <t>报告类别</t>
-  </si>
-  <si>
-    <t>s_est_report_type</t>
-  </si>
-  <si>
-    <t>分析师id</t>
-  </si>
-  <si>
-    <t>s_est_ratinganalystid</t>
-  </si>
-  <si>
-    <t>中国A股投资评级明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评级变动方向</t>
-  </si>
-  <si>
-    <t>s_rating_change</t>
-  </si>
-  <si>
-    <t>评级有效截止日</t>
-  </si>
-  <si>
-    <t>s_rating_validenddt</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>VARCHAR2(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -9889,505 +10473,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANNDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>263001000: 30 天, 263002000: 90 天, 263003000: 180 天, 263004000: 大事后 180 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券交易所债券行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondFCTD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondFValuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondFThirdPartyValuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondCalendar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondPrices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondValuation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_interestfrequency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券付息和兑付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondPayment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DividendTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DividendTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付息日</t>
-  </si>
-  <si>
-    <t>中国债券付息和兑付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_div_exdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_paymentdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_principalaftertax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_announcementdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国共同基金分红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>MappingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国期货连续(主力)合约和月合约映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondCF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中国债券现金流</t>
-  </si>
-  <si>
-    <t>中国债券现金流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondCF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_windcode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_carrydate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_enddate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_couponrate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER(22,6) </t>
-  </si>
-  <si>
-    <t>票面利率(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_paymentdate </t>
-  </si>
-  <si>
-    <t>现金流发放日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_paymentinterest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_paymentparvalue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_paymentsum </t>
-  </si>
-  <si>
-    <t>期末每百元面额应付本金</t>
-  </si>
-  <si>
-    <t>期末每百元面额应付利息</t>
-  </si>
-  <si>
-    <t>期末每百元面额现金流合计</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondPRepoDescription</t>
-  </si>
-  <si>
-    <t>FeatureTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_subjectwindcode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_repo_type </t>
-  </si>
-  <si>
-    <t xml:space="preserve">回购类型 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_repo_days </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER(5,0) </t>
-  </si>
-  <si>
-    <t>回购天数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_repo_firstdate </t>
-  </si>
-  <si>
-    <t>首次交易日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_info_repo_pcntbond </t>
-  </si>
-  <si>
-    <t>履约金比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(50) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_exchmarket </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(10) </t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标的债券Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:封闭式; 2:买断式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE:上交所;SZSE:深交所;NIB:银行间债券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券回购基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券回购基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券回购标准券折算率</t>
-  </si>
-  <si>
-    <t>CBondConversionRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">b_cvn_startdate </t>
-  </si>
-  <si>
-    <t>开始适用日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_cvn_enddate </t>
-  </si>
-  <si>
-    <t>结束适用日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_cvn_rateofstdbnd </t>
-  </si>
-  <si>
-    <t>折算比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b_cvn_cvntperhundred </t>
-  </si>
-  <si>
-    <t xml:space="preserve">折合标准券 </t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券回购标准券折算率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每张债券折合标准券金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券指数权重</t>
-  </si>
-  <si>
-    <t>CBIndexWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券指数权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">s_con_windcode </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trade_dt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">i_weight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMBER(20,8) </t>
-  </si>
-  <si>
-    <t>指数Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成份债Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券指数基本资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBIndexDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_compname </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR2(100) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_index_baseper </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_index_basept </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_listdate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_info_index_weightsrule </t>
-  </si>
-  <si>
-    <t>因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSE:上交所;SZSE:深交所;NIB:银行间市场;Others:其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:自由流通股本;2:总股本;3:分级靠档 1;4:分级靠档 2;5:新华富时;6:MSCI;7:沪深 300 反算权数;8:分级靠档 3;9:基本面 50 反算权数;10:等权重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券指数成分</t>
-  </si>
-  <si>
-    <t>CBIndexMembers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstituentTable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">s_con_indate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s_con_outdate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cur_sign </t>
-  </si>
-  <si>
-    <t xml:space="preserve">最新标志 </t>
-  </si>
-  <si>
-    <t>成份股Wind代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是;0:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券指数成分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国A股中信指数成份股</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均价(VWAP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券应计利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已计息时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每手付息数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>债权登记日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每手兑付本金数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>税后每手付息数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除息日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(20,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_interestperthousands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_principalperthousands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国债券交易所债券行情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondAccruedInterest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade_dt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_windcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_info_exchmarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发行人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_issuer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CBondDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_info_issuertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国共同基金被动型基金跟踪指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别处理类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10740,10 +10850,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10767,7 +10878,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>727</v>
       </c>
@@ -10778,9 +10889,9 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2787</v>
+        <v>3248</v>
       </c>
       <c r="B3" t="s">
         <v>726</v>
@@ -10791,809 +10902,825 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>235</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>245</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>262</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>244</v>
-      </c>
-      <c r="C5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>3223</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C9" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>617</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>618</v>
-      </c>
-      <c r="C10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>626</v>
-      </c>
-      <c r="B11" t="s">
-        <v>625</v>
       </c>
       <c r="C11" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>552</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>247</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" t="s">
-        <v>276</v>
       </c>
       <c r="C13" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>784</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>248</v>
-      </c>
-      <c r="C14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" t="s">
-        <v>218</v>
       </c>
       <c r="C15" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C19" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C21" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>828</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>829</v>
-      </c>
-      <c r="C24" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>879</v>
-      </c>
-      <c r="B25" t="s">
-        <v>867</v>
       </c>
       <c r="C25" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>879</v>
+      </c>
+      <c r="B26" t="s">
+        <v>867</v>
+      </c>
+      <c r="C26" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>2783</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>1372</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1374</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>1375</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1377</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>1378</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1380</v>
       </c>
       <c r="C29" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1382</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>1383</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>1384</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>1385</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1387</v>
       </c>
       <c r="C32" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>1388</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>1389</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B35" t="s">
         <v>2788</v>
       </c>
-      <c r="B34" t="s">
-        <v>2789</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
         <v>2790</v>
       </c>
-      <c r="B35" t="s">
-        <v>2791</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>189</v>
       </c>
-      <c r="B36" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C37" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2793</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>1020</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>1021</v>
-      </c>
-      <c r="C38" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1090</v>
       </c>
       <c r="C39" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3144</v>
+        <v>1091</v>
       </c>
       <c r="B40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C40" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B41" t="s">
         <v>691</v>
       </c>
-      <c r="C40" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>574</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>974</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>474</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>572</v>
-      </c>
-      <c r="C42" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>764</v>
-      </c>
-      <c r="B43" t="s">
-        <v>765</v>
       </c>
       <c r="C43" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B44" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C44" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1095</v>
+        <v>772</v>
       </c>
       <c r="B45" t="s">
-        <v>1097</v>
+        <v>773</v>
       </c>
       <c r="C45" t="s">
-        <v>1099</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>776</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>777</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>717</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>722</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>915</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>1251</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>972</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>971</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>830</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>751</v>
-      </c>
-      <c r="B50" t="s">
-        <v>752</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>752</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>729</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>730</v>
-      </c>
-      <c r="C51" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>788</v>
-      </c>
-      <c r="B52" t="s">
-        <v>787</v>
       </c>
       <c r="C52" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>788</v>
+      </c>
+      <c r="B53" t="s">
+        <v>787</v>
+      </c>
+      <c r="C53" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>1286</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>1259</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>1307</v>
       </c>
-      <c r="B54" t="s">
-        <v>3124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1308</v>
-      </c>
       <c r="B55" t="s">
-        <v>3125</v>
+        <v>3111</v>
       </c>
       <c r="C55" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1329</v>
+        <v>1308</v>
       </c>
       <c r="B56" t="s">
-        <v>3126</v>
+        <v>3112</v>
       </c>
       <c r="C56" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>724</v>
       </c>
-      <c r="B57" t="s">
-        <v>3127</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C58" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>1101</v>
       </c>
-      <c r="B58" t="s">
-        <v>3257</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>3242</v>
+      </c>
+      <c r="C59" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>796</v>
       </c>
-      <c r="B59" t="s">
-        <v>3128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>798</v>
-      </c>
       <c r="B60" t="s">
-        <v>799</v>
+        <v>3115</v>
       </c>
       <c r="C60" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1216</v>
+        <v>798</v>
       </c>
       <c r="B61" t="s">
-        <v>3251</v>
+        <v>799</v>
       </c>
       <c r="C61" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3149</v>
+        <v>1216</v>
       </c>
       <c r="B62" t="s">
-        <v>3150</v>
+        <v>3236</v>
       </c>
       <c r="C62" t="s">
-        <v>1099</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3250</v>
+        <v>3284</v>
       </c>
       <c r="B63" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B64" t="s">
         <v>1223</v>
-      </c>
-      <c r="C63" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B64" t="s">
-        <v>3129</v>
       </c>
       <c r="C64" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3132</v>
+        <v>1228</v>
       </c>
       <c r="B65" t="s">
-        <v>3133</v>
+        <v>3116</v>
       </c>
       <c r="C65" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3216</v>
+        <v>3119</v>
       </c>
       <c r="B66" t="s">
-        <v>3217</v>
+        <v>3120</v>
       </c>
       <c r="C66" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C67" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>1353</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>1348</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3237</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3229</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3230</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3209</v>
+        <v>3222</v>
       </c>
       <c r="B69" t="s">
-        <v>3208</v>
+        <v>3214</v>
       </c>
       <c r="C69" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C70" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3205</v>
+        <v>3175</v>
       </c>
       <c r="B71" t="s">
-        <v>3193</v>
+        <v>3153</v>
       </c>
       <c r="C71" t="s">
-        <v>1099</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>1335</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>1336</v>
-      </c>
-      <c r="C72" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>811</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1363</v>
       </c>
       <c r="C73" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1354</v>
+        <v>811</v>
       </c>
       <c r="B74" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="C74" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="B75" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C75" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B76" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C76" t="s">
         <v>493</v>
       </c>
     </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C77" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
+  <autoFilter ref="A1:C77">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="MappingTable"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:C33">
       <sortCondition ref="C1"/>
     </sortState>
@@ -11606,10 +11733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1710"/>
+  <dimension ref="A1:F1716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
-      <selection activeCell="H660" sqref="H660"/>
+    <sheetView tabSelected="1" topLeftCell="A1694" workbookViewId="0">
+      <selection activeCell="B1720" sqref="B1720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11925,7 +12052,7 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>3247</v>
+        <v>3232</v>
       </c>
       <c r="E18" t="s">
         <v>1263</v>
@@ -16842,7 +16969,7 @@
         <v>4</v>
       </c>
       <c r="E303" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -16859,7 +16986,7 @@
         <v>4</v>
       </c>
       <c r="E304" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -16876,7 +17003,7 @@
         <v>4</v>
       </c>
       <c r="E305" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -16893,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="E306" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -16910,7 +17037,7 @@
         <v>4</v>
       </c>
       <c r="E307" t="s">
-        <v>3146</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -16927,7 +17054,7 @@
         <v>4</v>
       </c>
       <c r="E308" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -16944,7 +17071,7 @@
         <v>4</v>
       </c>
       <c r="E309" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -16961,7 +17088,7 @@
         <v>4</v>
       </c>
       <c r="E310" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -17015,7 +17142,7 @@
         <v>4</v>
       </c>
       <c r="E313" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -17249,7 +17376,7 @@
         <v>4</v>
       </c>
       <c r="E326" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -17266,7 +17393,7 @@
         <v>4</v>
       </c>
       <c r="E327" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -17283,7 +17410,7 @@
         <v>4</v>
       </c>
       <c r="E328" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -17300,7 +17427,7 @@
         <v>4</v>
       </c>
       <c r="E329" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -17317,7 +17444,7 @@
         <v>4</v>
       </c>
       <c r="E330" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -17334,7 +17461,7 @@
         <v>4</v>
       </c>
       <c r="E331" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -17351,7 +17478,7 @@
         <v>4</v>
       </c>
       <c r="E332" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -17368,7 +17495,7 @@
         <v>4</v>
       </c>
       <c r="E333" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
       <c r="F333" t="s">
         <v>664</v>
@@ -17388,7 +17515,7 @@
         <v>4</v>
       </c>
       <c r="E334" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
       <c r="F334" t="s">
         <v>665</v>
@@ -17408,7 +17535,7 @@
         <v>4</v>
       </c>
       <c r="E335" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -17425,7 +17552,7 @@
         <v>4</v>
       </c>
       <c r="E336" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -17442,7 +17569,7 @@
         <v>4</v>
       </c>
       <c r="E337" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -17513,7 +17640,7 @@
         <v>4</v>
       </c>
       <c r="E341" t="s">
-        <v>3147</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -17598,7 +17725,7 @@
         <v>4</v>
       </c>
       <c r="E346" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -17649,7 +17776,7 @@
         <v>4</v>
       </c>
       <c r="E349" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -17666,7 +17793,7 @@
         <v>4</v>
       </c>
       <c r="E350" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -17683,7 +17810,7 @@
         <v>4</v>
       </c>
       <c r="E351" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -17700,7 +17827,7 @@
         <v>4</v>
       </c>
       <c r="E352" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -17717,7 +17844,7 @@
         <v>4</v>
       </c>
       <c r="E353" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -17734,7 +17861,7 @@
         <v>4</v>
       </c>
       <c r="E354" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -17802,7 +17929,7 @@
         <v>4</v>
       </c>
       <c r="E358" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -17836,7 +17963,7 @@
         <v>4</v>
       </c>
       <c r="E360" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -17853,7 +17980,7 @@
         <v>4</v>
       </c>
       <c r="E361" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -17870,7 +17997,7 @@
         <v>4</v>
       </c>
       <c r="E362" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -17887,7 +18014,7 @@
         <v>4</v>
       </c>
       <c r="E363" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -17921,7 +18048,7 @@
         <v>4</v>
       </c>
       <c r="E365" t="s">
-        <v>3145</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -22048,7 +22175,7 @@
         <v>1152</v>
       </c>
       <c r="C606" t="s">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="D606" t="s">
         <v>3</v>
@@ -22079,10 +22206,10 @@
         <v>1101</v>
       </c>
       <c r="B608" t="s">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="C608" t="s">
-        <v>3256</v>
+        <v>3241</v>
       </c>
       <c r="D608" t="s">
         <v>678</v>
@@ -22198,7 +22325,7 @@
         <v>1101</v>
       </c>
       <c r="B615" t="s">
-        <v>3130</v>
+        <v>3117</v>
       </c>
       <c r="C615" t="s">
         <v>1116</v>
@@ -22374,7 +22501,7 @@
         <v>1154</v>
       </c>
       <c r="C625" t="s">
-        <v>3131</v>
+        <v>3118</v>
       </c>
       <c r="D625" t="s">
         <v>746</v>
@@ -22556,7 +22683,7 @@
         <v>821</v>
       </c>
       <c r="C635" t="s">
-        <v>3254</v>
+        <v>3239</v>
       </c>
       <c r="D635" t="s">
         <v>25</v>
@@ -22987,7 +23114,7 @@
         <v>1205</v>
       </c>
       <c r="C660" t="s">
-        <v>3258</v>
+        <v>3243</v>
       </c>
       <c r="D660" t="s">
         <v>3</v>
@@ -23066,7 +23193,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>3240</v>
+        <v>3225</v>
       </c>
       <c r="B665" t="s">
         <v>1221</v>
@@ -23089,7 +23216,7 @@
         <v>27</v>
       </c>
       <c r="C666" t="s">
-        <v>3252</v>
+        <v>3237</v>
       </c>
       <c r="D666" t="s">
         <v>4</v>
@@ -23103,7 +23230,7 @@
         <v>1216</v>
       </c>
       <c r="B667" t="s">
-        <v>3241</v>
+        <v>3226</v>
       </c>
       <c r="C667" t="s">
         <v>1217</v>
@@ -23134,7 +23261,7 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>3123</v>
+        <v>3110</v>
       </c>
       <c r="B669" t="s">
         <v>1221</v>
@@ -23341,7 +23468,7 @@
         <v>1222</v>
       </c>
       <c r="B681" t="s">
-        <v>3239</v>
+        <v>3224</v>
       </c>
       <c r="C681" t="s">
         <v>1224</v>
@@ -37383,7 +37510,7 @@
     </row>
     <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1507" t="s">
         <v>171</v>
@@ -37395,1545 +37522,1545 @@
         <v>3</v>
       </c>
       <c r="E1507" t="s">
-        <v>3040</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1508" t="s">
-        <v>2977</v>
+        <v>2971</v>
       </c>
       <c r="C1508" t="s">
-        <v>2978</v>
+        <v>2972</v>
       </c>
       <c r="D1508" t="s">
         <v>4</v>
       </c>
       <c r="E1508" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1509" t="s">
-        <v>2797</v>
+        <v>2791</v>
       </c>
       <c r="C1509" t="s">
-        <v>2798</v>
+        <v>2792</v>
       </c>
       <c r="D1509" t="s">
         <v>4</v>
       </c>
       <c r="E1509" t="s">
-        <v>3043</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="1510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1510" t="s">
-        <v>2821</v>
+        <v>2815</v>
       </c>
       <c r="C1510" t="s">
-        <v>2822</v>
+        <v>2816</v>
       </c>
       <c r="D1510" t="s">
         <v>25</v>
       </c>
       <c r="E1510" t="s">
-        <v>3050</v>
+        <v>3042</v>
       </c>
       <c r="F1510" t="s">
-        <v>3122</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1511" t="s">
-        <v>2972</v>
+        <v>2966</v>
       </c>
       <c r="C1511" t="s">
-        <v>2973</v>
+        <v>2967</v>
       </c>
       <c r="D1511" t="s">
         <v>5</v>
       </c>
       <c r="E1511" t="s">
-        <v>3051</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1512" t="s">
-        <v>2974</v>
+        <v>2968</v>
       </c>
       <c r="C1512" t="s">
-        <v>2975</v>
+        <v>2969</v>
       </c>
       <c r="D1512" t="s">
-        <v>2976</v>
+        <v>2970</v>
       </c>
       <c r="E1512" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1513" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1513" t="s">
-        <v>2799</v>
+        <v>2793</v>
       </c>
       <c r="C1513" t="s">
-        <v>2800</v>
+        <v>2794</v>
       </c>
       <c r="D1513" t="s">
         <v>5</v>
       </c>
       <c r="E1513" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1514" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1514" t="s">
-        <v>2801</v>
+        <v>2795</v>
       </c>
       <c r="C1514" t="s">
-        <v>2802</v>
+        <v>2796</v>
       </c>
       <c r="D1514" t="s">
         <v>170</v>
       </c>
       <c r="E1514" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1515" t="s">
-        <v>2803</v>
+        <v>2797</v>
       </c>
       <c r="C1515" t="s">
-        <v>2804</v>
+        <v>2798</v>
       </c>
       <c r="D1515" t="s">
         <v>5</v>
       </c>
       <c r="E1515" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1516" t="s">
-        <v>2805</v>
+        <v>2799</v>
       </c>
       <c r="C1516" t="s">
-        <v>2806</v>
+        <v>2800</v>
       </c>
       <c r="D1516" t="s">
         <v>5</v>
       </c>
       <c r="E1516" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1517" t="s">
-        <v>2807</v>
+        <v>2801</v>
       </c>
       <c r="C1517" t="s">
-        <v>2808</v>
+        <v>2802</v>
       </c>
       <c r="D1517" t="s">
         <v>5</v>
       </c>
       <c r="E1517" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1518" t="s">
-        <v>2809</v>
+        <v>2803</v>
       </c>
       <c r="C1518" t="s">
-        <v>2810</v>
+        <v>2804</v>
       </c>
       <c r="D1518" t="s">
         <v>5</v>
       </c>
       <c r="E1518" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1519" t="s">
-        <v>2811</v>
+        <v>2805</v>
       </c>
       <c r="C1519" t="s">
-        <v>2812</v>
+        <v>2806</v>
       </c>
       <c r="D1519" t="s">
         <v>5</v>
       </c>
       <c r="E1519" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1520" t="s">
-        <v>2813</v>
+        <v>2807</v>
       </c>
       <c r="C1520" t="s">
-        <v>2814</v>
+        <v>2808</v>
       </c>
       <c r="D1520" t="s">
         <v>5</v>
       </c>
       <c r="E1520" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1521" t="s">
-        <v>2815</v>
+        <v>2809</v>
       </c>
       <c r="C1521" t="s">
-        <v>2816</v>
+        <v>2810</v>
       </c>
       <c r="D1521" t="s">
         <v>5</v>
       </c>
       <c r="E1521" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1522" t="s">
-        <v>2817</v>
+        <v>2811</v>
       </c>
       <c r="C1522" t="s">
-        <v>2818</v>
+        <v>2812</v>
       </c>
       <c r="D1522" t="s">
         <v>5</v>
       </c>
       <c r="E1522" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1523" t="s">
-        <v>2819</v>
+        <v>2813</v>
       </c>
       <c r="C1523" t="s">
-        <v>2820</v>
+        <v>2814</v>
       </c>
       <c r="D1523" t="s">
         <v>5</v>
       </c>
       <c r="E1523" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1524" t="s">
-        <v>2823</v>
+        <v>2817</v>
       </c>
       <c r="C1524" t="s">
-        <v>2824</v>
+        <v>2818</v>
       </c>
       <c r="D1524" t="s">
         <v>5</v>
       </c>
       <c r="E1524" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1525" t="s">
-        <v>2825</v>
+        <v>2819</v>
       </c>
       <c r="C1525" t="s">
-        <v>2826</v>
+        <v>2820</v>
       </c>
       <c r="D1525" t="s">
         <v>170</v>
       </c>
       <c r="E1525" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1526" t="s">
-        <v>2827</v>
+        <v>2821</v>
       </c>
       <c r="C1526" t="s">
-        <v>2828</v>
+        <v>2822</v>
       </c>
       <c r="D1526" t="s">
         <v>5</v>
       </c>
       <c r="E1526" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1527" t="s">
-        <v>2829</v>
+        <v>2823</v>
       </c>
       <c r="C1527" t="s">
-        <v>2830</v>
+        <v>2824</v>
       </c>
       <c r="D1527" t="s">
         <v>5</v>
       </c>
       <c r="E1527" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1528" t="s">
-        <v>2831</v>
+        <v>2825</v>
       </c>
       <c r="C1528" t="s">
-        <v>2832</v>
+        <v>2826</v>
       </c>
       <c r="D1528" t="s">
         <v>5</v>
       </c>
       <c r="E1528" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1529" t="s">
-        <v>2833</v>
+        <v>2827</v>
       </c>
       <c r="C1529" t="s">
-        <v>2834</v>
+        <v>2828</v>
       </c>
       <c r="D1529" t="s">
         <v>5</v>
       </c>
       <c r="E1529" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1530" t="s">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="C1530" t="s">
-        <v>2836</v>
+        <v>2830</v>
       </c>
       <c r="D1530" t="s">
         <v>5</v>
       </c>
       <c r="E1530" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1531" t="s">
-        <v>2837</v>
+        <v>2831</v>
       </c>
       <c r="C1531" t="s">
-        <v>2838</v>
+        <v>2832</v>
       </c>
       <c r="D1531" t="s">
         <v>5</v>
       </c>
       <c r="E1531" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1532" t="s">
-        <v>2839</v>
+        <v>2833</v>
       </c>
       <c r="C1532" t="s">
-        <v>2840</v>
+        <v>2834</v>
       </c>
       <c r="D1532" t="s">
         <v>5</v>
       </c>
       <c r="E1532" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
       <c r="B1533" t="s">
-        <v>2842</v>
+        <v>2836</v>
       </c>
       <c r="C1533" t="s">
-        <v>2843</v>
+        <v>2837</v>
       </c>
       <c r="D1533" t="s">
         <v>5</v>
       </c>
       <c r="E1533" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1534" t="s">
-        <v>2844</v>
+        <v>2838</v>
       </c>
       <c r="C1534" t="s">
-        <v>2845</v>
+        <v>2839</v>
       </c>
       <c r="D1534" t="s">
         <v>5</v>
       </c>
       <c r="E1534" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1535" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1535" t="s">
-        <v>2846</v>
+        <v>2840</v>
       </c>
       <c r="C1535" t="s">
-        <v>2847</v>
+        <v>2841</v>
       </c>
       <c r="D1535" t="s">
         <v>5</v>
       </c>
       <c r="E1535" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1536" t="s">
-        <v>2848</v>
+        <v>2842</v>
       </c>
       <c r="C1536" t="s">
-        <v>2849</v>
+        <v>2843</v>
       </c>
       <c r="D1536" t="s">
         <v>5</v>
       </c>
       <c r="E1536" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1537" t="s">
-        <v>2850</v>
+        <v>2844</v>
       </c>
       <c r="C1537" t="s">
-        <v>2851</v>
+        <v>2845</v>
       </c>
       <c r="D1537" t="s">
         <v>5</v>
       </c>
       <c r="E1537" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1538" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1538" t="s">
-        <v>2852</v>
+        <v>2846</v>
       </c>
       <c r="C1538" t="s">
-        <v>2853</v>
+        <v>2847</v>
       </c>
       <c r="D1538" t="s">
         <v>5</v>
       </c>
       <c r="E1538" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1539" t="s">
-        <v>2854</v>
+        <v>2848</v>
       </c>
       <c r="C1539" t="s">
-        <v>2855</v>
+        <v>2849</v>
       </c>
       <c r="D1539" t="s">
         <v>5</v>
       </c>
       <c r="E1539" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1540" t="s">
-        <v>2856</v>
+        <v>2850</v>
       </c>
       <c r="C1540" t="s">
-        <v>2857</v>
+        <v>2851</v>
       </c>
       <c r="D1540" t="s">
         <v>5</v>
       </c>
       <c r="E1540" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1541" t="s">
-        <v>2858</v>
+        <v>2852</v>
       </c>
       <c r="C1541" t="s">
-        <v>2859</v>
+        <v>2853</v>
       </c>
       <c r="D1541" t="s">
         <v>5</v>
       </c>
       <c r="E1541" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1542" t="s">
-        <v>2860</v>
+        <v>2854</v>
       </c>
       <c r="C1542" t="s">
-        <v>2861</v>
+        <v>2855</v>
       </c>
       <c r="D1542" t="s">
         <v>5</v>
       </c>
       <c r="E1542" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1543" t="s">
-        <v>2862</v>
+        <v>2856</v>
       </c>
       <c r="C1543" t="s">
-        <v>2863</v>
+        <v>2857</v>
       </c>
       <c r="D1543" t="s">
         <v>5</v>
       </c>
       <c r="E1543" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1544" t="s">
-        <v>2864</v>
+        <v>2858</v>
       </c>
       <c r="C1544" t="s">
-        <v>2865</v>
+        <v>2859</v>
       </c>
       <c r="D1544" t="s">
         <v>5</v>
       </c>
       <c r="E1544" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1545" t="s">
-        <v>2866</v>
+        <v>2860</v>
       </c>
       <c r="C1545" t="s">
-        <v>2867</v>
+        <v>2861</v>
       </c>
       <c r="D1545" t="s">
         <v>5</v>
       </c>
       <c r="E1545" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1546" t="s">
-        <v>2868</v>
+        <v>2862</v>
       </c>
       <c r="C1546" t="s">
-        <v>2869</v>
+        <v>2863</v>
       </c>
       <c r="D1546" t="s">
         <v>5</v>
       </c>
       <c r="E1546" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1547" t="s">
-        <v>2870</v>
+        <v>2864</v>
       </c>
       <c r="C1547" t="s">
-        <v>2871</v>
+        <v>2865</v>
       </c>
       <c r="D1547" t="s">
         <v>5</v>
       </c>
       <c r="E1547" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1548" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1548" t="s">
-        <v>2872</v>
+        <v>2866</v>
       </c>
       <c r="C1548" t="s">
-        <v>2873</v>
+        <v>2867</v>
       </c>
       <c r="D1548" t="s">
         <v>5</v>
       </c>
       <c r="E1548" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1549" t="s">
-        <v>2874</v>
+        <v>2868</v>
       </c>
       <c r="C1549" t="s">
-        <v>2875</v>
+        <v>2869</v>
       </c>
       <c r="D1549" t="s">
         <v>5</v>
       </c>
       <c r="E1549" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
       <c r="B1550" t="s">
-        <v>2876</v>
+        <v>2870</v>
       </c>
       <c r="C1550" t="s">
-        <v>2877</v>
+        <v>2871</v>
       </c>
       <c r="D1550" t="s">
         <v>5</v>
       </c>
       <c r="E1550" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1551" t="s">
-        <v>2878</v>
+        <v>2872</v>
       </c>
       <c r="C1551" t="s">
-        <v>2879</v>
+        <v>2873</v>
       </c>
       <c r="D1551" t="s">
         <v>5</v>
       </c>
       <c r="E1551" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1552" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1552" t="s">
-        <v>2880</v>
+        <v>2874</v>
       </c>
       <c r="C1552" t="s">
-        <v>2881</v>
+        <v>2875</v>
       </c>
       <c r="D1552" t="s">
         <v>5</v>
       </c>
       <c r="E1552" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1553" t="s">
-        <v>2882</v>
+        <v>2876</v>
       </c>
       <c r="C1553" t="s">
-        <v>2883</v>
+        <v>2877</v>
       </c>
       <c r="D1553" t="s">
         <v>5</v>
       </c>
       <c r="E1553" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1554" t="s">
-        <v>2884</v>
+        <v>2878</v>
       </c>
       <c r="C1554" t="s">
-        <v>2885</v>
+        <v>2879</v>
       </c>
       <c r="D1554" t="s">
         <v>5</v>
       </c>
       <c r="E1554" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1555" t="s">
-        <v>2886</v>
+        <v>2880</v>
       </c>
       <c r="C1555" t="s">
-        <v>2887</v>
+        <v>2881</v>
       </c>
       <c r="D1555" t="s">
         <v>5</v>
       </c>
       <c r="E1555" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1556" t="s">
-        <v>2888</v>
+        <v>2882</v>
       </c>
       <c r="C1556" t="s">
-        <v>2889</v>
+        <v>2883</v>
       </c>
       <c r="D1556" t="s">
         <v>5</v>
       </c>
       <c r="E1556" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1557" t="s">
-        <v>2890</v>
+        <v>2884</v>
       </c>
       <c r="C1557" t="s">
-        <v>2891</v>
+        <v>2885</v>
       </c>
       <c r="D1557" t="s">
         <v>5</v>
       </c>
       <c r="E1557" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1558" t="s">
-        <v>2892</v>
+        <v>2886</v>
       </c>
       <c r="C1558" t="s">
-        <v>2893</v>
+        <v>2887</v>
       </c>
       <c r="D1558" t="s">
         <v>5</v>
       </c>
       <c r="E1558" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1559" t="s">
-        <v>2894</v>
+        <v>2888</v>
       </c>
       <c r="C1559" t="s">
-        <v>2895</v>
+        <v>2889</v>
       </c>
       <c r="D1559" t="s">
         <v>5</v>
       </c>
       <c r="E1559" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1560" t="s">
-        <v>2896</v>
+        <v>2890</v>
       </c>
       <c r="C1560" t="s">
-        <v>2897</v>
+        <v>2891</v>
       </c>
       <c r="D1560" t="s">
         <v>5</v>
       </c>
       <c r="E1560" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1561" t="s">
-        <v>2898</v>
+        <v>2892</v>
       </c>
       <c r="C1561" t="s">
-        <v>2899</v>
+        <v>2893</v>
       </c>
       <c r="D1561" t="s">
         <v>5</v>
       </c>
       <c r="E1561" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1562" t="s">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="C1562" t="s">
-        <v>2901</v>
+        <v>2895</v>
       </c>
       <c r="D1562" t="s">
         <v>5</v>
       </c>
       <c r="E1562" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1563" t="s">
-        <v>2902</v>
+        <v>2896</v>
       </c>
       <c r="C1563" t="s">
-        <v>2903</v>
+        <v>2897</v>
       </c>
       <c r="D1563" t="s">
         <v>5</v>
       </c>
       <c r="E1563" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1564" t="s">
-        <v>2904</v>
+        <v>2898</v>
       </c>
       <c r="C1564" t="s">
-        <v>2905</v>
+        <v>2899</v>
       </c>
       <c r="D1564" t="s">
         <v>5</v>
       </c>
       <c r="E1564" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1565" t="s">
-        <v>2906</v>
+        <v>2900</v>
       </c>
       <c r="C1565" t="s">
-        <v>2907</v>
+        <v>2901</v>
       </c>
       <c r="D1565" t="s">
         <v>5</v>
       </c>
       <c r="E1565" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1566" t="s">
-        <v>2908</v>
+        <v>2902</v>
       </c>
       <c r="C1566" t="s">
-        <v>2909</v>
+        <v>2903</v>
       </c>
       <c r="D1566" t="s">
         <v>5</v>
       </c>
       <c r="E1566" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1567" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1567" t="s">
-        <v>2910</v>
+        <v>2904</v>
       </c>
       <c r="C1567" t="s">
-        <v>2911</v>
+        <v>2905</v>
       </c>
       <c r="D1567" t="s">
         <v>5</v>
       </c>
       <c r="E1567" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1568" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1568" t="s">
-        <v>2912</v>
+        <v>2906</v>
       </c>
       <c r="C1568" t="s">
-        <v>2913</v>
+        <v>2907</v>
       </c>
       <c r="D1568" t="s">
         <v>5</v>
       </c>
       <c r="E1568" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1569" t="s">
-        <v>2914</v>
+        <v>2908</v>
       </c>
       <c r="C1569" t="s">
-        <v>2915</v>
+        <v>2909</v>
       </c>
       <c r="D1569" t="s">
         <v>5</v>
       </c>
       <c r="E1569" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1570" t="s">
-        <v>2916</v>
+        <v>2910</v>
       </c>
       <c r="C1570" t="s">
-        <v>2917</v>
+        <v>2911</v>
       </c>
       <c r="D1570" t="s">
         <v>5</v>
       </c>
       <c r="E1570" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1571" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1571" t="s">
-        <v>2918</v>
+        <v>2912</v>
       </c>
       <c r="C1571" t="s">
-        <v>2919</v>
+        <v>2913</v>
       </c>
       <c r="D1571" t="s">
         <v>5</v>
       </c>
       <c r="E1571" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1572" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1572" t="s">
-        <v>2920</v>
+        <v>2914</v>
       </c>
       <c r="C1572" t="s">
-        <v>2921</v>
+        <v>2915</v>
       </c>
       <c r="D1572" t="s">
         <v>5</v>
       </c>
       <c r="E1572" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1573" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1573" t="s">
-        <v>2922</v>
+        <v>2916</v>
       </c>
       <c r="C1573" t="s">
-        <v>2923</v>
+        <v>2917</v>
       </c>
       <c r="D1573" t="s">
         <v>5</v>
       </c>
       <c r="E1573" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
-        <v>2841</v>
+        <v>2835</v>
       </c>
       <c r="B1574" t="s">
-        <v>2924</v>
+        <v>2918</v>
       </c>
       <c r="C1574" t="s">
-        <v>2925</v>
+        <v>2919</v>
       </c>
       <c r="D1574" t="s">
         <v>5</v>
       </c>
       <c r="E1574" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1575" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1575" t="s">
-        <v>2926</v>
+        <v>2920</v>
       </c>
       <c r="C1575" t="s">
-        <v>2927</v>
+        <v>2921</v>
       </c>
       <c r="D1575" t="s">
         <v>5</v>
       </c>
       <c r="E1575" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1576" t="s">
-        <v>2928</v>
+        <v>2922</v>
       </c>
       <c r="C1576" t="s">
-        <v>2929</v>
+        <v>2923</v>
       </c>
       <c r="D1576" t="s">
         <v>5</v>
       </c>
       <c r="E1576" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1577" t="s">
-        <v>2930</v>
+        <v>2924</v>
       </c>
       <c r="C1577" t="s">
-        <v>2931</v>
+        <v>2925</v>
       </c>
       <c r="D1577" t="s">
         <v>5</v>
       </c>
       <c r="E1577" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1578" t="s">
-        <v>2932</v>
+        <v>2926</v>
       </c>
       <c r="C1578" t="s">
-        <v>2933</v>
+        <v>2927</v>
       </c>
       <c r="D1578" t="s">
         <v>5</v>
       </c>
       <c r="E1578" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1579" t="s">
-        <v>2934</v>
+        <v>2928</v>
       </c>
       <c r="C1579" t="s">
-        <v>2935</v>
+        <v>2929</v>
       </c>
       <c r="D1579" t="s">
         <v>5</v>
       </c>
       <c r="E1579" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1580" t="s">
-        <v>2936</v>
+        <v>2930</v>
       </c>
       <c r="C1580" t="s">
-        <v>2937</v>
+        <v>2931</v>
       </c>
       <c r="D1580" t="s">
         <v>5</v>
       </c>
       <c r="E1580" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1581" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1581" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="C1581" t="s">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="D1581" t="s">
         <v>5</v>
       </c>
       <c r="E1581" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1582" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1582" t="s">
-        <v>2940</v>
+        <v>2934</v>
       </c>
       <c r="C1582" t="s">
-        <v>2941</v>
+        <v>2935</v>
       </c>
       <c r="D1582" t="s">
         <v>5</v>
       </c>
       <c r="E1582" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1583" t="s">
-        <v>2942</v>
+        <v>2936</v>
       </c>
       <c r="C1583" t="s">
-        <v>2943</v>
+        <v>2937</v>
       </c>
       <c r="D1583" t="s">
         <v>5</v>
       </c>
       <c r="E1583" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1584" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1584" t="s">
-        <v>2944</v>
+        <v>2938</v>
       </c>
       <c r="C1584" t="s">
-        <v>2945</v>
+        <v>2939</v>
       </c>
       <c r="D1584" t="s">
         <v>5</v>
       </c>
       <c r="E1584" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1585" t="s">
-        <v>2946</v>
+        <v>2940</v>
       </c>
       <c r="C1585" t="s">
-        <v>2947</v>
+        <v>2941</v>
       </c>
       <c r="D1585" t="s">
         <v>5</v>
       </c>
       <c r="E1585" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1586" t="s">
-        <v>2948</v>
+        <v>2942</v>
       </c>
       <c r="C1586" t="s">
-        <v>2949</v>
+        <v>2943</v>
       </c>
       <c r="D1586" t="s">
         <v>5</v>
       </c>
       <c r="E1586" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1587" t="s">
-        <v>2950</v>
+        <v>2944</v>
       </c>
       <c r="C1587" t="s">
-        <v>2951</v>
+        <v>2945</v>
       </c>
       <c r="D1587" t="s">
         <v>5</v>
       </c>
       <c r="E1587" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1588" t="s">
-        <v>2952</v>
+        <v>2946</v>
       </c>
       <c r="C1588" t="s">
-        <v>2953</v>
+        <v>2947</v>
       </c>
       <c r="D1588" t="s">
         <v>5</v>
       </c>
       <c r="E1588" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1589" t="s">
-        <v>2954</v>
+        <v>2948</v>
       </c>
       <c r="C1589" t="s">
-        <v>2955</v>
+        <v>2949</v>
       </c>
       <c r="D1589" t="s">
         <v>5</v>
       </c>
       <c r="E1589" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1590" t="s">
-        <v>2956</v>
+        <v>2950</v>
       </c>
       <c r="C1590" t="s">
-        <v>2957</v>
+        <v>2951</v>
       </c>
       <c r="D1590" t="s">
         <v>5</v>
       </c>
       <c r="E1590" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1591" t="s">
-        <v>2958</v>
+        <v>2952</v>
       </c>
       <c r="C1591" t="s">
-        <v>2959</v>
+        <v>2953</v>
       </c>
       <c r="D1591" t="s">
         <v>5</v>
       </c>
       <c r="E1591" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1592" t="s">
-        <v>2960</v>
+        <v>2954</v>
       </c>
       <c r="C1592" t="s">
-        <v>2961</v>
+        <v>2955</v>
       </c>
       <c r="D1592" t="s">
         <v>5</v>
       </c>
       <c r="E1592" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1593" t="s">
-        <v>2962</v>
+        <v>2956</v>
       </c>
       <c r="C1593" t="s">
-        <v>2963</v>
+        <v>2957</v>
       </c>
       <c r="D1593" t="s">
         <v>5</v>
       </c>
       <c r="E1593" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1594" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1594" t="s">
-        <v>2964</v>
+        <v>2958</v>
       </c>
       <c r="C1594" t="s">
-        <v>2965</v>
+        <v>2959</v>
       </c>
       <c r="D1594" t="s">
         <v>5</v>
       </c>
       <c r="E1594" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1595" t="s">
-        <v>2966</v>
+        <v>2960</v>
       </c>
       <c r="C1595" t="s">
-        <v>2967</v>
+        <v>2961</v>
       </c>
       <c r="D1595" t="s">
         <v>5</v>
       </c>
       <c r="E1595" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1596" t="s">
-        <v>2968</v>
+        <v>2962</v>
       </c>
       <c r="C1596" t="s">
-        <v>2969</v>
+        <v>2963</v>
       </c>
       <c r="D1596" t="s">
         <v>5</v>
       </c>
       <c r="E1596" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1597" t="s">
-        <v>2970</v>
+        <v>2964</v>
       </c>
       <c r="C1597" t="s">
-        <v>2971</v>
+        <v>2965</v>
       </c>
       <c r="D1597" t="s">
         <v>5</v>
       </c>
       <c r="E1597" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1598" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1598" t="s">
         <v>171</v>
@@ -38945,100 +39072,100 @@
         <v>3</v>
       </c>
       <c r="E1598" t="s">
-        <v>3044</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1599" t="s">
-        <v>2980</v>
+        <v>2974</v>
       </c>
       <c r="C1599" t="s">
-        <v>2981</v>
+        <v>2975</v>
       </c>
       <c r="D1599" t="s">
         <v>746</v>
       </c>
       <c r="E1599" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1600" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1600" t="s">
-        <v>2982</v>
+        <v>2976</v>
       </c>
       <c r="C1600" t="s">
-        <v>2983</v>
+        <v>2977</v>
       </c>
       <c r="D1600" t="s">
         <v>746</v>
       </c>
       <c r="E1600" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1601" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1601" t="s">
-        <v>2977</v>
+        <v>2971</v>
       </c>
       <c r="C1601" t="s">
-        <v>2978</v>
+        <v>2972</v>
       </c>
       <c r="D1601" t="s">
         <v>4</v>
       </c>
       <c r="E1601" t="s">
-        <v>3041</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1602" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1602" t="s">
         <v>2979</v>
-      </c>
-      <c r="B1602" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C1602" t="s">
-        <v>2985</v>
       </c>
       <c r="D1602" t="s">
         <v>4</v>
       </c>
       <c r="E1602" t="s">
-        <v>3047</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="1603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1603" t="s">
-        <v>2997</v>
+        <v>2990</v>
       </c>
       <c r="C1603" t="s">
-        <v>2998</v>
+        <v>2991</v>
       </c>
       <c r="D1603" t="s">
         <v>5</v>
       </c>
       <c r="E1603" t="s">
-        <v>3048</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1604" t="s">
-        <v>2999</v>
+        <v>2992</v>
       </c>
       <c r="C1604" t="s">
         <v>600</v>
@@ -39046,433 +39173,427 @@
       <c r="D1604" t="s">
         <v>4</v>
       </c>
-      <c r="E1604" t="s">
-        <v>1618</v>
-      </c>
     </row>
     <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1605" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1605" t="s">
-        <v>3036</v>
+        <v>3029</v>
       </c>
       <c r="C1605" t="s">
-        <v>3037</v>
+        <v>3030</v>
       </c>
       <c r="D1605" t="s">
         <v>4</v>
       </c>
-      <c r="E1605" t="s">
-        <v>3049</v>
-      </c>
     </row>
     <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1606" t="s">
-        <v>2986</v>
+        <v>2980</v>
       </c>
       <c r="B1606" t="s">
-        <v>2987</v>
+        <v>2981</v>
       </c>
       <c r="C1606" t="s">
-        <v>2988</v>
+        <v>2982</v>
       </c>
       <c r="D1606" t="s">
         <v>5</v>
       </c>
       <c r="E1606" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1607" t="s">
-        <v>2989</v>
+        <v>3254</v>
       </c>
       <c r="C1607" t="s">
-        <v>2990</v>
+        <v>2983</v>
       </c>
       <c r="D1607" t="s">
         <v>5</v>
       </c>
       <c r="E1607" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1608" t="s">
-        <v>2991</v>
+        <v>2984</v>
       </c>
       <c r="C1608" t="s">
-        <v>2992</v>
+        <v>2985</v>
       </c>
       <c r="D1608" t="s">
         <v>5</v>
       </c>
       <c r="E1608" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1609" t="s">
-        <v>2993</v>
+        <v>2986</v>
       </c>
       <c r="C1609" t="s">
-        <v>2994</v>
+        <v>2987</v>
       </c>
       <c r="D1609" t="s">
         <v>5</v>
       </c>
       <c r="E1609" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1610" t="s">
-        <v>2995</v>
+        <v>2988</v>
       </c>
       <c r="C1610" t="s">
-        <v>2996</v>
+        <v>2989</v>
       </c>
       <c r="D1610" t="s">
         <v>5</v>
       </c>
       <c r="E1610" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1611" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1611" t="s">
-        <v>3000</v>
+        <v>2993</v>
       </c>
       <c r="C1611" t="s">
-        <v>3001</v>
+        <v>2994</v>
       </c>
       <c r="D1611" t="s">
         <v>5</v>
       </c>
       <c r="E1611" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1612" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1612" t="s">
-        <v>3002</v>
+        <v>2995</v>
       </c>
       <c r="C1612" t="s">
-        <v>3003</v>
+        <v>2996</v>
       </c>
       <c r="D1612" t="s">
         <v>5</v>
       </c>
       <c r="E1612" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1613" t="s">
-        <v>3004</v>
+        <v>2997</v>
       </c>
       <c r="C1613" t="s">
-        <v>3005</v>
+        <v>2998</v>
       </c>
       <c r="D1613" t="s">
         <v>5</v>
       </c>
       <c r="E1613" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1614" t="s">
-        <v>3006</v>
+        <v>2999</v>
       </c>
       <c r="C1614" t="s">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="D1614" t="s">
         <v>5</v>
       </c>
       <c r="E1614" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1615" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1615" t="s">
-        <v>3008</v>
+        <v>3001</v>
       </c>
       <c r="C1615" t="s">
-        <v>3009</v>
+        <v>3002</v>
       </c>
       <c r="D1615" t="s">
         <v>5</v>
       </c>
       <c r="E1615" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1616" t="s">
-        <v>3010</v>
+        <v>3003</v>
       </c>
       <c r="C1616" t="s">
-        <v>3011</v>
+        <v>3004</v>
       </c>
       <c r="D1616" t="s">
         <v>5</v>
       </c>
       <c r="E1616" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1617" t="s">
-        <v>3012</v>
+        <v>3005</v>
       </c>
       <c r="C1617" t="s">
-        <v>3013</v>
+        <v>3006</v>
       </c>
       <c r="D1617" t="s">
         <v>5</v>
       </c>
       <c r="E1617" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1618" t="s">
-        <v>3014</v>
+        <v>3007</v>
       </c>
       <c r="C1618" t="s">
-        <v>3015</v>
+        <v>3008</v>
       </c>
       <c r="D1618" t="s">
         <v>5</v>
       </c>
       <c r="E1618" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1619" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1619" t="s">
-        <v>3016</v>
+        <v>3009</v>
       </c>
       <c r="C1619" t="s">
-        <v>3017</v>
+        <v>3010</v>
       </c>
       <c r="D1619" t="s">
         <v>5</v>
       </c>
       <c r="E1619" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1620" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1620" t="s">
-        <v>3018</v>
+        <v>3011</v>
       </c>
       <c r="C1620" t="s">
-        <v>3019</v>
+        <v>3012</v>
       </c>
       <c r="D1620" t="s">
         <v>5</v>
       </c>
       <c r="E1620" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1621" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1621" t="s">
-        <v>3020</v>
+        <v>3013</v>
       </c>
       <c r="C1621" t="s">
-        <v>3021</v>
+        <v>3014</v>
       </c>
       <c r="D1621" t="s">
         <v>5</v>
       </c>
       <c r="E1621" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1622" t="s">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="C1622" t="s">
-        <v>3023</v>
+        <v>3016</v>
       </c>
       <c r="D1622" t="s">
         <v>5</v>
       </c>
       <c r="E1622" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1623" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1623" t="s">
-        <v>3024</v>
+        <v>3017</v>
       </c>
       <c r="C1623" t="s">
-        <v>3025</v>
+        <v>3018</v>
       </c>
       <c r="D1623" t="s">
         <v>5</v>
       </c>
       <c r="E1623" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1624" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1624" t="s">
-        <v>3026</v>
+        <v>3019</v>
       </c>
       <c r="C1624" t="s">
-        <v>3027</v>
+        <v>3020</v>
       </c>
       <c r="D1624" t="s">
         <v>5</v>
       </c>
       <c r="E1624" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1625" t="s">
-        <v>3028</v>
+        <v>3021</v>
       </c>
       <c r="C1625" t="s">
-        <v>3029</v>
+        <v>3022</v>
       </c>
       <c r="D1625" t="s">
         <v>5</v>
       </c>
       <c r="E1625" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1626" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1626" t="s">
-        <v>3030</v>
+        <v>3023</v>
       </c>
       <c r="C1626" t="s">
-        <v>3031</v>
+        <v>3024</v>
       </c>
       <c r="D1626" t="s">
         <v>5</v>
       </c>
       <c r="E1626" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1627" t="s">
-        <v>3032</v>
+        <v>3025</v>
       </c>
       <c r="C1627" t="s">
-        <v>3033</v>
+        <v>3026</v>
       </c>
       <c r="D1627" t="s">
         <v>5</v>
       </c>
       <c r="E1627" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1628" t="s">
-        <v>2986</v>
+        <v>2980</v>
       </c>
       <c r="B1628" t="s">
-        <v>3034</v>
+        <v>3027</v>
       </c>
       <c r="C1628" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1628" t="s">
         <v>3035</v>
-      </c>
-      <c r="D1628" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1628" t="s">
-        <v>3042</v>
       </c>
     </row>
     <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
-        <v>2979</v>
+        <v>2973</v>
       </c>
       <c r="B1629" t="s">
-        <v>3038</v>
+        <v>3031</v>
       </c>
       <c r="C1629" t="s">
-        <v>3039</v>
+        <v>3032</v>
       </c>
       <c r="D1629" t="s">
         <v>5</v>
       </c>
       <c r="E1629" t="s">
-        <v>3042</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
@@ -39489,32 +39610,32 @@
         <v>3</v>
       </c>
       <c r="E1630" t="s">
-        <v>3116</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
-        <v>3052</v>
+        <v>3043</v>
       </c>
       <c r="B1631" t="s">
-        <v>3053</v>
+        <v>3044</v>
       </c>
       <c r="C1631" t="s">
-        <v>3054</v>
+        <v>3045</v>
       </c>
       <c r="D1631" t="s">
-        <v>3055</v>
+        <v>3046</v>
       </c>
       <c r="E1631" t="s">
-        <v>3117</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1632" t="s">
-        <v>3066</v>
+        <v>3057</v>
       </c>
       <c r="B1632" t="s">
-        <v>3078</v>
+        <v>3069</v>
       </c>
       <c r="C1632" t="s">
         <v>214</v>
@@ -39528,78 +39649,78 @@
     </row>
     <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1633" t="s">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="B1633" t="s">
-        <v>3057</v>
+        <v>3048</v>
       </c>
       <c r="C1633" t="s">
-        <v>3058</v>
+        <v>3049</v>
       </c>
       <c r="D1633" t="s">
-        <v>3059</v>
+        <v>3050</v>
       </c>
       <c r="E1633" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1634" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C1634" t="s">
         <v>3052</v>
       </c>
-      <c r="B1634" t="s">
-        <v>3060</v>
-      </c>
-      <c r="C1634" t="s">
-        <v>3061</v>
-      </c>
       <c r="D1634" t="s">
-        <v>3062</v>
+        <v>3053</v>
       </c>
       <c r="E1634" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1635" t="s">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="B1635" t="s">
-        <v>3064</v>
+        <v>3055</v>
       </c>
       <c r="C1635" t="s">
-        <v>3065</v>
+        <v>3056</v>
       </c>
       <c r="D1635" t="s">
         <v>5</v>
       </c>
       <c r="E1635" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>3066</v>
+        <v>3057</v>
       </c>
       <c r="B1636" t="s">
-        <v>3067</v>
+        <v>3058</v>
       </c>
       <c r="C1636" t="s">
         <v>190</v>
       </c>
       <c r="D1636" t="s">
-        <v>3062</v>
+        <v>3053</v>
       </c>
       <c r="E1636" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
-        <v>3052</v>
+        <v>3043</v>
       </c>
       <c r="B1637" t="s">
-        <v>3068</v>
+        <v>3059</v>
       </c>
       <c r="C1637" t="s">
         <v>208</v>
@@ -39608,15 +39729,15 @@
         <v>5</v>
       </c>
       <c r="E1637" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
-        <v>3069</v>
+        <v>3060</v>
       </c>
       <c r="B1638" t="s">
-        <v>3070</v>
+        <v>3061</v>
       </c>
       <c r="C1638" t="s">
         <v>209</v>
@@ -39625,32 +39746,32 @@
         <v>5</v>
       </c>
       <c r="E1638" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="B1639" t="s">
-        <v>3071</v>
+        <v>3062</v>
       </c>
       <c r="C1639" t="s">
         <v>210</v>
       </c>
       <c r="D1639" t="s">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="E1639" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="B1640" t="s">
-        <v>3073</v>
+        <v>3064</v>
       </c>
       <c r="C1640" t="s">
         <v>211</v>
@@ -39659,49 +39780,49 @@
         <v>5</v>
       </c>
       <c r="E1640" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>3074</v>
+        <v>3065</v>
       </c>
       <c r="B1641" t="s">
-        <v>3075</v>
+        <v>3066</v>
       </c>
       <c r="C1641" t="s">
-        <v>3076</v>
+        <v>3067</v>
       </c>
       <c r="D1641" t="s">
         <v>5</v>
       </c>
       <c r="E1641" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>3074</v>
+        <v>3065</v>
       </c>
       <c r="B1642" t="s">
-        <v>3077</v>
+        <v>3068</v>
       </c>
       <c r="C1642" t="s">
         <v>213</v>
       </c>
       <c r="D1642" t="s">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="E1642" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>3074</v>
+        <v>3065</v>
       </c>
       <c r="B1643" t="s">
-        <v>3079</v>
+        <v>3070</v>
       </c>
       <c r="C1643" t="s">
         <v>215</v>
@@ -39710,29 +39831,29 @@
         <v>5</v>
       </c>
       <c r="E1643" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>3063</v>
+        <v>3054</v>
       </c>
       <c r="B1644" t="s">
-        <v>3080</v>
+        <v>3071</v>
       </c>
       <c r="C1644" t="s">
         <v>216</v>
       </c>
       <c r="D1644" t="s">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="E1644" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B1645" t="s">
         <v>1221</v>
@@ -39744,52 +39865,52 @@
         <v>3</v>
       </c>
       <c r="E1645" t="s">
-        <v>3119</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="1646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B1646" t="s">
-        <v>2980</v>
+        <v>2974</v>
       </c>
       <c r="C1646" t="s">
-        <v>3082</v>
+        <v>3073</v>
       </c>
       <c r="D1646" t="s">
         <v>678</v>
       </c>
       <c r="E1646" t="s">
-        <v>3045</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1647" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B1647" t="s">
-        <v>2982</v>
+        <v>2976</v>
       </c>
       <c r="C1647" t="s">
-        <v>3083</v>
+        <v>3074</v>
       </c>
       <c r="D1647" t="s">
         <v>678</v>
       </c>
       <c r="E1647" t="s">
-        <v>3046</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B1648" t="s">
-        <v>3084</v>
+        <v>3075</v>
       </c>
       <c r="C1648" t="s">
-        <v>3085</v>
+        <v>3076</v>
       </c>
       <c r="D1648" t="s">
         <v>4</v>
@@ -39800,10 +39921,10 @@
     </row>
     <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1649" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="B1649" t="s">
-        <v>3100</v>
+        <v>3090</v>
       </c>
       <c r="C1649" t="s">
         <v>600</v>
@@ -39811,237 +39932,228 @@
       <c r="D1649" t="s">
         <v>4</v>
       </c>
-      <c r="E1649" t="s">
-        <v>3120</v>
-      </c>
     </row>
     <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B1650" t="s">
-        <v>3109</v>
+        <v>3098</v>
       </c>
       <c r="C1650" t="s">
-        <v>3110</v>
+        <v>3099</v>
       </c>
       <c r="D1650" t="s">
         <v>928</v>
       </c>
-      <c r="E1650" t="s">
-        <v>3118</v>
-      </c>
     </row>
     <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>3111</v>
+        <v>3100</v>
       </c>
       <c r="B1651" t="s">
-        <v>3114</v>
+        <v>3103</v>
       </c>
       <c r="C1651" t="s">
-        <v>3115</v>
+        <v>3104</v>
       </c>
       <c r="D1651" t="s">
         <v>4</v>
       </c>
-      <c r="E1651" t="s">
-        <v>3121</v>
-      </c>
     </row>
     <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B1652" t="s">
-        <v>3086</v>
+        <v>3249</v>
       </c>
       <c r="C1652" t="s">
-        <v>3087</v>
+        <v>3077</v>
       </c>
       <c r="D1652" t="s">
         <v>5</v>
       </c>
       <c r="E1652" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1653" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="B1653" t="s">
-        <v>3089</v>
+        <v>3079</v>
       </c>
       <c r="C1653" t="s">
-        <v>3090</v>
+        <v>3080</v>
       </c>
       <c r="D1653" t="s">
         <v>5</v>
       </c>
       <c r="E1653" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="B1654" t="s">
-        <v>3091</v>
+        <v>3081</v>
       </c>
       <c r="C1654" t="s">
-        <v>3092</v>
+        <v>3082</v>
       </c>
       <c r="D1654" t="s">
         <v>5</v>
       </c>
       <c r="E1654" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B1655" t="s">
-        <v>3093</v>
+        <v>3083</v>
       </c>
       <c r="C1655" t="s">
-        <v>3094</v>
+        <v>3084</v>
       </c>
       <c r="D1655" t="s">
         <v>5</v>
       </c>
       <c r="E1655" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="B1656" t="s">
-        <v>3096</v>
+        <v>3086</v>
       </c>
       <c r="C1656" t="s">
-        <v>3097</v>
+        <v>3087</v>
       </c>
       <c r="D1656" t="s">
         <v>5</v>
       </c>
       <c r="E1656" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1657" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1657" t="s">
         <v>3088</v>
       </c>
-      <c r="B1657" t="s">
-        <v>3098</v>
-      </c>
       <c r="C1657" t="s">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="D1657" t="s">
         <v>5</v>
       </c>
       <c r="E1657" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="B1658" t="s">
-        <v>3101</v>
+        <v>3247</v>
       </c>
       <c r="C1658" t="s">
-        <v>3102</v>
+        <v>3091</v>
       </c>
       <c r="D1658" t="s">
         <v>746</v>
       </c>
       <c r="E1658" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
-        <v>3081</v>
+        <v>3072</v>
       </c>
       <c r="B1659" t="s">
-        <v>3103</v>
+        <v>3092</v>
       </c>
       <c r="C1659" t="s">
-        <v>3104</v>
+        <v>3093</v>
       </c>
       <c r="D1659" t="s">
         <v>746</v>
       </c>
       <c r="E1659" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>3088</v>
+        <v>3078</v>
       </c>
       <c r="B1660" t="s">
-        <v>3105</v>
+        <v>3094</v>
       </c>
       <c r="C1660" t="s">
-        <v>3106</v>
+        <v>3095</v>
       </c>
       <c r="D1660" t="s">
         <v>935</v>
       </c>
       <c r="E1660" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1661" t="s">
-        <v>3095</v>
+        <v>3085</v>
       </c>
       <c r="B1661" t="s">
-        <v>3107</v>
+        <v>3096</v>
       </c>
       <c r="C1661" t="s">
-        <v>3108</v>
+        <v>3097</v>
       </c>
       <c r="D1661" t="s">
         <v>857</v>
       </c>
       <c r="E1661" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>3111</v>
+        <v>3100</v>
       </c>
       <c r="B1662" t="s">
-        <v>3112</v>
+        <v>3101</v>
       </c>
       <c r="C1662" t="s">
-        <v>3113</v>
+        <v>3102</v>
       </c>
       <c r="D1662" t="s">
         <v>857</v>
       </c>
       <c r="E1662" t="s">
-        <v>3118</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>3132</v>
+        <v>3119</v>
       </c>
       <c r="B1663" t="s">
-        <v>3138</v>
+        <v>3125</v>
       </c>
       <c r="C1663" t="s">
         <v>2</v>
@@ -40050,18 +40162,18 @@
         <v>3</v>
       </c>
       <c r="E1663" t="s">
-        <v>3139</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1664" t="s">
         <v>687</v>
       </c>
       <c r="C1664" t="s">
-        <v>3143</v>
+        <v>3130</v>
       </c>
       <c r="D1664" t="s">
         <v>4</v>
@@ -40072,10 +40184,10 @@
     </row>
     <row r="1665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1665" t="s">
-        <v>3243</v>
+        <v>3228</v>
       </c>
       <c r="C1665" t="s">
         <v>1166</v>
@@ -40089,13 +40201,13 @@
     </row>
     <row r="1666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1666" t="s">
-        <v>3246</v>
+        <v>3231</v>
       </c>
       <c r="C1666" t="s">
-        <v>3140</v>
+        <v>3127</v>
       </c>
       <c r="D1666" t="s">
         <v>4</v>
@@ -40106,13 +40218,13 @@
     </row>
     <row r="1667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1667" t="s">
-        <v>3136</v>
+        <v>3123</v>
       </c>
       <c r="C1667" t="s">
-        <v>3141</v>
+        <v>3128</v>
       </c>
       <c r="D1667" t="s">
         <v>4</v>
@@ -40123,13 +40235,13 @@
     </row>
     <row r="1668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1668" t="s">
-        <v>3242</v>
+        <v>3227</v>
       </c>
       <c r="C1668" t="s">
-        <v>3248</v>
+        <v>3233</v>
       </c>
       <c r="D1668" t="s">
         <v>5</v>
@@ -40140,13 +40252,13 @@
     </row>
     <row r="1669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1669" t="s">
-        <v>3244</v>
+        <v>3229</v>
       </c>
       <c r="C1669" t="s">
-        <v>3249</v>
+        <v>3234</v>
       </c>
       <c r="D1669" t="s">
         <v>26</v>
@@ -40157,13 +40269,13 @@
     </row>
     <row r="1670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1670" t="s">
-        <v>3245</v>
+        <v>3230</v>
       </c>
       <c r="C1670" t="s">
-        <v>3142</v>
+        <v>3129</v>
       </c>
       <c r="D1670" t="s">
         <v>5</v>
@@ -40174,7 +40286,7 @@
     </row>
     <row r="1671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>3137</v>
+        <v>3124</v>
       </c>
       <c r="B1671" t="s">
         <v>28</v>
@@ -40191,47 +40303,47 @@
     </row>
     <row r="1672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1672" t="s">
-        <v>3167</v>
+        <v>3152</v>
       </c>
       <c r="C1672" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1672" t="s">
         <v>476</v>
       </c>
       <c r="E1672" t="s">
-        <v>3165</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1673" t="s">
         <v>1122</v>
       </c>
       <c r="C1673" t="s">
-        <v>3152</v>
+        <v>3137</v>
       </c>
       <c r="D1673" t="s">
         <v>477</v>
       </c>
       <c r="E1673" t="s">
-        <v>3166</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="1674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1674" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1674" t="s">
         <v>1124</v>
       </c>
       <c r="C1674" t="s">
-        <v>3153</v>
+        <v>3138</v>
       </c>
       <c r="D1674" t="s">
         <v>477</v>
@@ -40242,16 +40354,16 @@
     </row>
     <row r="1675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1675" t="s">
-        <v>3156</v>
+        <v>3141</v>
       </c>
       <c r="C1675" t="s">
-        <v>3154</v>
+        <v>3139</v>
       </c>
       <c r="D1675" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="E1675" t="s">
         <v>1269</v>
@@ -40259,13 +40371,13 @@
     </row>
     <row r="1676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1676" t="s">
-        <v>3158</v>
+        <v>3143</v>
       </c>
       <c r="C1676" t="s">
-        <v>3157</v>
+        <v>3142</v>
       </c>
       <c r="D1676" t="s">
         <v>477</v>
@@ -40276,16 +40388,16 @@
     </row>
     <row r="1677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B1677" t="s">
         <v>3148</v>
       </c>
-      <c r="B1677" t="s">
-        <v>3163</v>
-      </c>
       <c r="C1677" t="s">
-        <v>3159</v>
+        <v>3144</v>
       </c>
       <c r="D1677" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="E1677" t="s">
         <v>1269</v>
@@ -40293,16 +40405,16 @@
     </row>
     <row r="1678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1678" t="s">
-        <v>3162</v>
+        <v>3147</v>
       </c>
       <c r="C1678" t="s">
-        <v>3160</v>
+        <v>3145</v>
       </c>
       <c r="D1678" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="E1678" t="s">
         <v>1269</v>
@@ -40310,16 +40422,16 @@
     </row>
     <row r="1679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>3148</v>
+        <v>3135</v>
       </c>
       <c r="B1679" t="s">
-        <v>3164</v>
+        <v>3149</v>
       </c>
       <c r="C1679" t="s">
-        <v>3161</v>
+        <v>3146</v>
       </c>
       <c r="D1679" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="E1679" t="s">
         <v>1269</v>
@@ -40327,172 +40439,172 @@
     </row>
     <row r="1680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1680" t="s">
-        <v>3186</v>
+        <v>3171</v>
       </c>
       <c r="C1680" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1680" t="s">
         <v>476</v>
       </c>
       <c r="E1680" t="s">
-        <v>3184</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1681" t="s">
-        <v>3187</v>
+        <v>3172</v>
       </c>
       <c r="C1681" t="s">
-        <v>3170</v>
+        <v>3155</v>
       </c>
       <c r="D1681" t="s">
         <v>476</v>
       </c>
       <c r="E1681" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1682" t="s">
-        <v>3172</v>
+        <v>3157</v>
       </c>
       <c r="C1682" t="s">
-        <v>3171</v>
+        <v>3156</v>
       </c>
       <c r="D1682" t="s">
         <v>476</v>
       </c>
       <c r="E1682" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="F1682" t="s">
-        <v>3188</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1683" t="s">
-        <v>3175</v>
+        <v>3160</v>
       </c>
       <c r="C1683" t="s">
-        <v>3173</v>
+        <v>3158</v>
       </c>
       <c r="D1683" t="s">
-        <v>3174</v>
+        <v>3159</v>
       </c>
       <c r="E1683" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1684" t="s">
-        <v>3177</v>
+        <v>3162</v>
       </c>
       <c r="C1684" t="s">
-        <v>3176</v>
+        <v>3161</v>
       </c>
       <c r="D1684" t="s">
         <v>477</v>
       </c>
       <c r="E1684" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1685" t="s">
-        <v>3179</v>
+        <v>3164</v>
       </c>
       <c r="C1685" t="s">
-        <v>3178</v>
+        <v>3163</v>
       </c>
       <c r="D1685" t="s">
         <v>478</v>
       </c>
       <c r="E1685" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1686" t="s">
         <v>817</v>
       </c>
       <c r="C1686" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="D1686" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="E1686" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="B1687" t="s">
         <v>821</v>
       </c>
       <c r="C1687" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="D1687" t="s">
-        <v>3183</v>
+        <v>3168</v>
       </c>
       <c r="E1687" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="F1687" t="s">
-        <v>3189</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="B1688" t="s">
-        <v>3167</v>
+        <v>3152</v>
       </c>
       <c r="C1688" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1688" t="s">
         <v>476</v>
       </c>
       <c r="E1688" t="s">
-        <v>3202</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="B1689" t="s">
-        <v>3195</v>
+        <v>3180</v>
       </c>
       <c r="C1689" t="s">
-        <v>3194</v>
+        <v>3179</v>
       </c>
       <c r="D1689" t="s">
         <v>477</v>
@@ -40503,13 +40615,13 @@
     </row>
     <row r="1690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="B1690" t="s">
-        <v>3197</v>
+        <v>3182</v>
       </c>
       <c r="C1690" t="s">
-        <v>3196</v>
+        <v>3181</v>
       </c>
       <c r="D1690" t="s">
         <v>477</v>
@@ -40520,50 +40632,50 @@
     </row>
     <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="B1691" t="s">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="C1691" t="s">
-        <v>3198</v>
+        <v>3183</v>
       </c>
       <c r="D1691" t="s">
         <v>478</v>
       </c>
       <c r="E1691" t="s">
-        <v>3203</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="B1692" t="s">
-        <v>3201</v>
+        <v>3186</v>
       </c>
       <c r="C1692" t="s">
-        <v>3200</v>
+        <v>3185</v>
       </c>
       <c r="D1692" t="s">
         <v>478</v>
       </c>
       <c r="E1692" t="s">
-        <v>3204</v>
+        <v>3189</v>
       </c>
       <c r="F1692" t="s">
-        <v>3206</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1693" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="C1693" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1693" t="s">
         <v>476</v>
@@ -40574,13 +40686,13 @@
     </row>
     <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1694" t="s">
-        <v>3215</v>
+        <v>3200</v>
       </c>
       <c r="C1694" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="D1694" t="s">
         <v>476</v>
@@ -40591,13 +40703,13 @@
     </row>
     <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1695" t="s">
         <v>27</v>
       </c>
       <c r="C1695" t="s">
-        <v>3211</v>
+        <v>3196</v>
       </c>
       <c r="D1695" t="s">
         <v>477</v>
@@ -40608,16 +40720,16 @@
     </row>
     <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="B1696" t="s">
         <v>261</v>
       </c>
       <c r="C1696" t="s">
-        <v>3212</v>
+        <v>3197</v>
       </c>
       <c r="D1696" t="s">
-        <v>3213</v>
+        <v>3198</v>
       </c>
       <c r="E1696" t="s">
         <v>1263</v>
@@ -40625,172 +40737,172 @@
     </row>
     <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1697" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1697" t="s">
-        <v>3167</v>
+        <v>3152</v>
       </c>
       <c r="C1697" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1697" t="s">
         <v>476</v>
       </c>
       <c r="E1697" t="s">
-        <v>3165</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1698" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1698" t="s">
         <v>816</v>
       </c>
       <c r="C1698" t="s">
-        <v>3218</v>
+        <v>3203</v>
       </c>
       <c r="D1698" t="s">
         <v>476</v>
       </c>
       <c r="E1698" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1699" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1699" t="s">
         <v>817</v>
       </c>
       <c r="C1699" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="D1699" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="E1699" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1700" t="s">
         <v>851</v>
       </c>
       <c r="C1700" t="s">
-        <v>3219</v>
+        <v>3204</v>
       </c>
       <c r="D1700" t="s">
-        <v>3220</v>
+        <v>3205</v>
       </c>
       <c r="E1700" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1701" t="s">
         <v>821</v>
       </c>
       <c r="C1701" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="D1701" t="s">
         <v>476</v>
       </c>
       <c r="E1701" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="F1701" t="s">
-        <v>3226</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1702" t="s">
         <v>852</v>
       </c>
       <c r="C1702" t="s">
-        <v>3221</v>
+        <v>3206</v>
       </c>
       <c r="D1702" t="s">
         <v>477</v>
       </c>
       <c r="E1702" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1703" t="s">
         <v>853</v>
       </c>
       <c r="C1703" t="s">
-        <v>3222</v>
+        <v>3207</v>
       </c>
       <c r="D1703" t="s">
         <v>478</v>
       </c>
       <c r="E1703" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1704" t="s">
         <v>854</v>
       </c>
       <c r="C1704" t="s">
-        <v>3223</v>
+        <v>3208</v>
       </c>
       <c r="D1704" t="s">
         <v>477</v>
       </c>
       <c r="E1704" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>3216</v>
+        <v>3201</v>
       </c>
       <c r="B1705" t="s">
         <v>855</v>
       </c>
       <c r="C1705" t="s">
-        <v>3224</v>
+        <v>3209</v>
       </c>
       <c r="D1705" t="s">
-        <v>3183</v>
+        <v>3168</v>
       </c>
       <c r="E1705" t="s">
-        <v>3225</v>
+        <v>3210</v>
       </c>
       <c r="F1705" t="s">
-        <v>3227</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1706" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="C1706" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="D1706" t="s">
         <v>476</v>
@@ -40801,13 +40913,13 @@
     </row>
     <row r="1707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1707" t="s">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="C1707" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="D1707" t="s">
         <v>476</v>
@@ -40818,13 +40930,13 @@
     </row>
     <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1708" t="s">
         <v>229</v>
       </c>
       <c r="C1708" t="s">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="D1708" t="s">
         <v>477</v>
@@ -40835,13 +40947,13 @@
     </row>
     <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1709" t="s">
         <v>231</v>
       </c>
       <c r="C1709" t="s">
-        <v>3232</v>
+        <v>3217</v>
       </c>
       <c r="D1709" t="s">
         <v>477</v>
@@ -40852,13 +40964,13 @@
     </row>
     <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>3228</v>
+        <v>3213</v>
       </c>
       <c r="B1710" t="s">
-        <v>3234</v>
+        <v>3219</v>
       </c>
       <c r="C1710" t="s">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="D1710" t="s">
         <v>479</v>
@@ -40867,7 +40979,115 @@
         <v>1268</v>
       </c>
       <c r="F1710" t="s">
-        <v>3236</v>
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1711" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1712" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1713" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1715" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>3278</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>3280</v>
       </c>
     </row>
   </sheetData>
@@ -40875,4 +41095,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resource/WindDB2Info.xlsx
+++ b/Resource/WindDB2Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="21840" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="3" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$E$710</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TableInfo!$A$1:$C$88</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9055" uniqueCount="3328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9525" uniqueCount="3519">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10659,6 +10659,614 @@
   </si>
   <si>
     <t>不包含</t>
+  </si>
+  <si>
+    <t>A股员工构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareStaffStructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A股员工构成</t>
+  </si>
+  <si>
+    <t>人数类别代码</t>
+  </si>
+  <si>
+    <t>staff_type_code</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>end_dt</t>
+  </si>
+  <si>
+    <t>report_type_code</t>
+  </si>
+  <si>
+    <t>项目分类代码</t>
+  </si>
+  <si>
+    <t>item_type_code</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>项目代码</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>staff_number</t>
+  </si>
+  <si>
+    <t>所占比例</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司id</t>
+  </si>
+  <si>
+    <t>员工人数(人)</t>
+  </si>
+  <si>
+    <t>母公司员工人数(人)</t>
+  </si>
+  <si>
+    <t>特殊情况说明</t>
+  </si>
+  <si>
+    <t>A股员工人数变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_info_totalemployees</t>
+  </si>
+  <si>
+    <t>s_info_totalemployees2</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_date</t>
+  </si>
+  <si>
+    <t>ex_type</t>
+  </si>
+  <si>
+    <t>除权类型</t>
+  </si>
+  <si>
+    <t>ex_description</t>
+  </si>
+  <si>
+    <t>除权说明</t>
+  </si>
+  <si>
+    <t>cash_dividend_ratio</t>
+  </si>
+  <si>
+    <t>派息比例</t>
+  </si>
+  <si>
+    <t>NUMBER(15,4)</t>
+  </si>
+  <si>
+    <t>bonus_share_ratio</t>
+  </si>
+  <si>
+    <t>送股比例</t>
+  </si>
+  <si>
+    <t>rightsissue_ratio</t>
+  </si>
+  <si>
+    <t>rightsissue_price</t>
+  </si>
+  <si>
+    <t>配股价格</t>
+  </si>
+  <si>
+    <t>conversed_ratio</t>
+  </si>
+  <si>
+    <t>转增比例</t>
+  </si>
+  <si>
+    <t>seo_price</t>
+  </si>
+  <si>
+    <t>增发价格</t>
+  </si>
+  <si>
+    <t>seo_ratio</t>
+  </si>
+  <si>
+    <t>增发比例</t>
+  </si>
+  <si>
+    <t>consolidate_split_ratio</t>
+  </si>
+  <si>
+    <t>缩减比例</t>
+  </si>
+  <si>
+    <t>中国A股除权除息记录</t>
+  </si>
+  <si>
+    <t>中国A股除权除息记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareEXRightDividendRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变动日期(除权日)</t>
+  </si>
+  <si>
+    <t>自由流通股本(万股)</t>
+  </si>
+  <si>
+    <t>变动日期(上市日)</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>总股本(万股)</t>
+  </si>
+  <si>
+    <t>流通股(万股)</t>
+  </si>
+  <si>
+    <t>流通A股(万股)</t>
+  </si>
+  <si>
+    <t>流通B股(万股)</t>
+  </si>
+  <si>
+    <t>流通H股(万股)</t>
+  </si>
+  <si>
+    <t>境外流通股(万股)</t>
+  </si>
+  <si>
+    <t>在境外上市流通的股份，如S股、N股等</t>
+  </si>
+  <si>
+    <t>限售A股(万股)</t>
+  </si>
+  <si>
+    <t>限售A股(国家持股)</t>
+  </si>
+  <si>
+    <t>限售A股(国有法人持股)</t>
+  </si>
+  <si>
+    <t>限售A股(其他内资持股)</t>
+  </si>
+  <si>
+    <t>限售A股(其他内资持股:境内法人持股)</t>
+  </si>
+  <si>
+    <t>限售A股(其他内资持股:机构配售股)</t>
+  </si>
+  <si>
+    <t>限售A股(其他内资持股:境内自然人持股)</t>
+  </si>
+  <si>
+    <t>限售股份(高管持股)(万股)</t>
+  </si>
+  <si>
+    <t>限售A股(外资持股)</t>
+  </si>
+  <si>
+    <t>限售A股(境外法人持股)</t>
+  </si>
+  <si>
+    <t>限售A股(境外自然人持股)</t>
+  </si>
+  <si>
+    <t>限售B股(万股)</t>
+  </si>
+  <si>
+    <t>其他限售股</t>
+  </si>
+  <si>
+    <t>非流通股</t>
+  </si>
+  <si>
+    <t>非流通股(国有股)</t>
+  </si>
+  <si>
+    <t>非流通股(国家股)</t>
+  </si>
+  <si>
+    <t>非流通股(国有法人股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股:境内发起人股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股:募集法人股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股:一般法人股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股:战略投资者持股)</t>
+  </si>
+  <si>
+    <t>非流通股(境内法人股:基金持股)</t>
+  </si>
+  <si>
+    <t>非流通股(自然人股)</t>
+  </si>
+  <si>
+    <t>转配股(万股)</t>
+  </si>
+  <si>
+    <t>流通股(高管持股)</t>
+  </si>
+  <si>
+    <t>流通股中属于该公司高管持有的部分</t>
+  </si>
+  <si>
+    <t>内部职工股(万股)</t>
+  </si>
+  <si>
+    <t>历史遗留的内部职工持股</t>
+  </si>
+  <si>
+    <t>优先股(万股)</t>
+  </si>
+  <si>
+    <t>非流通股(非上市外资股)</t>
+  </si>
+  <si>
+    <t>外资股东持有的非流通股</t>
+  </si>
+  <si>
+    <t>STAQ股(万股)</t>
+  </si>
+  <si>
+    <t>NET股(万股)</t>
+  </si>
+  <si>
+    <t>股本变动原因</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>变动日期1</t>
+  </si>
+  <si>
+    <t>A股合计</t>
+  </si>
+  <si>
+    <t>B股合计</t>
+  </si>
+  <si>
+    <t>三板A股</t>
+  </si>
+  <si>
+    <t>三板B股</t>
+  </si>
+  <si>
+    <t>三板合计</t>
+  </si>
+  <si>
+    <t>香港上市股</t>
+  </si>
+  <si>
+    <t>流通股合计</t>
+  </si>
+  <si>
+    <t>限售股合计</t>
+  </si>
+  <si>
+    <t>股改前非流通股</t>
+  </si>
+  <si>
+    <t>是否有效</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_dt</t>
+  </si>
+  <si>
+    <t>float_shr</t>
+  </si>
+  <si>
+    <t>float_a_shr</t>
+  </si>
+  <si>
+    <t>float_b_shr</t>
+  </si>
+  <si>
+    <t>float_h_shr</t>
+  </si>
+  <si>
+    <t>float_overseas_shr</t>
+  </si>
+  <si>
+    <t>restricted_a_shr</t>
+  </si>
+  <si>
+    <t>s_share_rtd_state</t>
+  </si>
+  <si>
+    <t>s_share_rtd_statejur</t>
+  </si>
+  <si>
+    <t>s_share_rtd_subotherdomes</t>
+  </si>
+  <si>
+    <t>s_share_rtd_domesjur</t>
+  </si>
+  <si>
+    <t>s_share_rtd_inst</t>
+  </si>
+  <si>
+    <t>s_share_rtd_domesnp</t>
+  </si>
+  <si>
+    <t>s_share_rtd_senmanager</t>
+  </si>
+  <si>
+    <t>s_share_rtd_subfrgn</t>
+  </si>
+  <si>
+    <t>s_share_rtd_frgnjur</t>
+  </si>
+  <si>
+    <t>s_share_rtd_frgnnp</t>
+  </si>
+  <si>
+    <t>restricted_b_shr</t>
+  </si>
+  <si>
+    <t>other_restricted_shr</t>
+  </si>
+  <si>
+    <t>non_tradable_shr</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_state_pct</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_state</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_statjur</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_subdomesjur</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_domesinitor</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_ipojuris</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_genjuris</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_strtinvestor</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_fundbal</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_ipoinip</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_trfnshare</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_snormnger</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_insderemp</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_prfshare</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_nonlstfrgn</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_staq</t>
+  </si>
+  <si>
+    <t>s_share_ntrd_net</t>
+  </si>
+  <si>
+    <t>s_share_changereason</t>
+  </si>
+  <si>
+    <t>change_dt1</t>
+  </si>
+  <si>
+    <t>s_share_totala</t>
+  </si>
+  <si>
+    <t>s_share_totalb</t>
+  </si>
+  <si>
+    <t>s_share_otca</t>
+  </si>
+  <si>
+    <t>s_share_otcb</t>
+  </si>
+  <si>
+    <t>s_share_totalotc</t>
+  </si>
+  <si>
+    <t>s_share_h</t>
+  </si>
+  <si>
+    <t>s_share_totaltradable</t>
+  </si>
+  <si>
+    <t>s_share_totalrestricted</t>
+  </si>
+  <si>
+    <t>s_share_nontradable</t>
+  </si>
+  <si>
+    <t>is_valid</t>
+  </si>
+  <si>
+    <t>中国A股股本</t>
+  </si>
+  <si>
+    <t>AShareCapitalization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国A股自由流通股本</t>
+  </si>
+  <si>
+    <t>中国A股自由流通股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AShareFreeFloat</t>
+  </si>
+  <si>
+    <t>中国A股股本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通A股+流通B股+流通H股+境外流通股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币普通股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以外币计价交易的人民币特种股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大陆注册，香港上市的外资股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限售股份(国家持股)+限售股份(国有法人持股)+限售股份(其他内资持股)+限售股份(外资持股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限售股份(境内法人持股)+限售股份(机构配售股份)+限售股份(境内自然人持股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含:限售股份(高管持股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限售股份(境外法人持股)+限售股份(境外自然人持股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前一般为H股限售股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总股本-(A股流通股+B股流通股+H股流通股+境外流通股)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家股+国有法人股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境内发起人股+募集法人股+一般法人股+战略投资者持股+基金持股+STAQ股+NET股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是;0:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_share_freeshares</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当股票分红送转股时, 变动日期1加工的是除权日, 变动日期加工的是红股上市日; 当类型是增发时, 变动日期1加工的是登记日, 变动日期加工的是新股上市日, 其他情况下一般不做区分，即变动日期1=变动日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件披露的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11010,10 +11618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11072,98 +11680,95 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3259</v>
+        <v>3328</v>
       </c>
       <c r="B5" t="s">
-        <v>3260</v>
+        <v>3329</v>
       </c>
       <c r="C5" t="s">
-        <v>3272</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>617</v>
+        <v>3355</v>
       </c>
       <c r="B6" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" t="s">
-        <v>619</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>626</v>
+        <v>3259</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>3260</v>
       </c>
       <c r="C7" t="s">
-        <v>619</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3284</v>
+        <v>617</v>
       </c>
       <c r="B8" t="s">
-        <v>3285</v>
+        <v>618</v>
       </c>
       <c r="C8" t="s">
-        <v>3316</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3291</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s">
-        <v>3292</v>
+        <v>625</v>
       </c>
       <c r="C9" t="s">
-        <v>3316</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3294</v>
+        <v>3386</v>
       </c>
       <c r="B10" t="s">
-        <v>3295</v>
+        <v>3387</v>
       </c>
       <c r="C10" t="s">
-        <v>3316</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3298</v>
+        <v>3501</v>
       </c>
       <c r="B11" t="s">
-        <v>3299</v>
+        <v>3497</v>
       </c>
       <c r="C11" t="s">
-        <v>3316</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3303</v>
+        <v>3499</v>
       </c>
       <c r="B12" t="s">
-        <v>3304</v>
+        <v>3500</v>
       </c>
       <c r="C12" t="s">
-        <v>3316</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3308</v>
+        <v>3284</v>
       </c>
       <c r="B13" t="s">
-        <v>3309</v>
+        <v>3285</v>
       </c>
       <c r="C13" t="s">
         <v>3316</v>
@@ -11171,76 +11776,76 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>3291</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>3292</v>
       </c>
       <c r="C14" t="s">
-        <v>1276</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>3294</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>3295</v>
       </c>
       <c r="C15" t="s">
-        <v>493</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>3298</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>3299</v>
       </c>
       <c r="C16" t="s">
-        <v>493</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>3303</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>3304</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>3308</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>3309</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
         <v>493</v>
@@ -11248,10 +11853,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>493</v>
@@ -11259,65 +11864,65 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>2782</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>1371</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>1372</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1373</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>1374</v>
+        <v>224</v>
       </c>
       <c r="C23" t="s">
-        <v>1375</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1376</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>1377</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
-        <v>1372</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1378</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>1379</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>1372</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1381</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>1382</v>
+        <v>223</v>
       </c>
       <c r="C26" t="s">
-        <v>1375</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1383</v>
+        <v>2782</v>
       </c>
       <c r="B27" t="s">
-        <v>1384</v>
+        <v>1371</v>
       </c>
       <c r="C27" t="s">
         <v>1372</v>
@@ -11325,241 +11930,241 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="B28" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="C28" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="B29" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="C29" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2786</v>
+        <v>1378</v>
       </c>
       <c r="B30" t="s">
-        <v>2787</v>
+        <v>1379</v>
       </c>
       <c r="C30" t="s">
-        <v>2789</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3252</v>
+        <v>1381</v>
       </c>
       <c r="B31" t="s">
-        <v>3251</v>
+        <v>1382</v>
       </c>
       <c r="C31" t="s">
-        <v>3243</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>1383</v>
       </c>
       <c r="B32" t="s">
-        <v>3249</v>
+        <v>1384</v>
       </c>
       <c r="C32" t="s">
-        <v>1276</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3245</v>
+        <v>1385</v>
       </c>
       <c r="B33" t="s">
-        <v>3250</v>
+        <v>1386</v>
       </c>
       <c r="C33" t="s">
-        <v>3244</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>878</v>
+        <v>1387</v>
       </c>
       <c r="B34" t="s">
-        <v>866</v>
+        <v>1388</v>
       </c>
       <c r="C34" t="s">
-        <v>830</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>2786</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>2787</v>
       </c>
       <c r="C35" t="s">
-        <v>1259</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>3252</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>3251</v>
       </c>
       <c r="C36" t="s">
-        <v>573</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3222</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>3249</v>
       </c>
       <c r="C37" t="s">
-        <v>573</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>3245</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>3250</v>
       </c>
       <c r="C38" t="s">
-        <v>573</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>878</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>866</v>
       </c>
       <c r="C39" t="s">
-        <v>573</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C40" t="s">
-        <v>573</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>552</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s">
-        <v>1276</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>784</v>
+        <v>3222</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C44" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1019</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
-        <v>1020</v>
+        <v>251</v>
       </c>
       <c r="C45" t="s">
-        <v>830</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1090</v>
+        <v>552</v>
       </c>
       <c r="B46" t="s">
-        <v>1089</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>830</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3130</v>
+        <v>784</v>
       </c>
       <c r="B47" t="s">
-        <v>691</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
-        <v>3120</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>574</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>973</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>1276</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>474</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>572</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
         <v>493</v>
@@ -11567,87 +12172,87 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>764</v>
+        <v>1019</v>
       </c>
       <c r="B50" t="s">
-        <v>765</v>
+        <v>1020</v>
       </c>
       <c r="C50" t="s">
-        <v>493</v>
+        <v>830</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>772</v>
+        <v>1090</v>
       </c>
       <c r="B51" t="s">
-        <v>773</v>
+        <v>1089</v>
       </c>
       <c r="C51" t="s">
-        <v>493</v>
+        <v>830</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3276</v>
+        <v>3130</v>
       </c>
       <c r="B52" t="s">
-        <v>1096</v>
+        <v>691</v>
       </c>
       <c r="C52" t="s">
-        <v>1098</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>776</v>
+        <v>574</v>
       </c>
       <c r="B53" t="s">
-        <v>777</v>
+        <v>973</v>
       </c>
       <c r="C53" t="s">
-        <v>493</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>717</v>
+        <v>474</v>
       </c>
       <c r="B54" t="s">
-        <v>722</v>
+        <v>572</v>
       </c>
       <c r="C54" t="s">
-        <v>723</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>914</v>
+        <v>764</v>
       </c>
       <c r="B55" t="s">
-        <v>1250</v>
+        <v>765</v>
       </c>
       <c r="C55" t="s">
-        <v>913</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>971</v>
+        <v>772</v>
       </c>
       <c r="B56" t="s">
-        <v>970</v>
+        <v>773</v>
       </c>
       <c r="C56" t="s">
-        <v>830</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="B57" t="s">
-        <v>752</v>
+        <v>1096</v>
       </c>
       <c r="C57" t="s">
         <v>1098</v>
@@ -11655,10 +12260,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>729</v>
+        <v>776</v>
       </c>
       <c r="B58" t="s">
-        <v>730</v>
+        <v>777</v>
       </c>
       <c r="C58" t="s">
         <v>493</v>
@@ -11666,54 +12271,54 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>788</v>
+        <v>717</v>
       </c>
       <c r="B59" t="s">
-        <v>787</v>
+        <v>722</v>
       </c>
       <c r="C59" t="s">
-        <v>493</v>
+        <v>723</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1285</v>
+        <v>914</v>
       </c>
       <c r="B60" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="C60" t="s">
-        <v>1276</v>
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1306</v>
+        <v>971</v>
       </c>
       <c r="B61" t="s">
-        <v>3110</v>
+        <v>970</v>
       </c>
       <c r="C61" t="s">
-        <v>493</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1307</v>
+        <v>3273</v>
       </c>
       <c r="B62" t="s">
-        <v>3111</v>
+        <v>752</v>
       </c>
       <c r="C62" t="s">
-        <v>493</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1328</v>
+        <v>729</v>
       </c>
       <c r="B63" t="s">
-        <v>3112</v>
+        <v>730</v>
       </c>
       <c r="C63" t="s">
         <v>493</v>
@@ -11721,32 +12326,32 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>724</v>
+        <v>788</v>
       </c>
       <c r="B64" t="s">
-        <v>3113</v>
+        <v>787</v>
       </c>
       <c r="C64" t="s">
-        <v>723</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1100</v>
+        <v>1285</v>
       </c>
       <c r="B65" t="s">
-        <v>3241</v>
+        <v>1258</v>
       </c>
       <c r="C65" t="s">
-        <v>1101</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>796</v>
+        <v>1306</v>
       </c>
       <c r="B66" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="C66" t="s">
         <v>493</v>
@@ -11754,10 +12359,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>798</v>
+        <v>1307</v>
       </c>
       <c r="B67" t="s">
-        <v>799</v>
+        <v>3111</v>
       </c>
       <c r="C67" t="s">
         <v>493</v>
@@ -11765,10 +12370,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1215</v>
+        <v>1328</v>
       </c>
       <c r="B68" t="s">
-        <v>3235</v>
+        <v>3112</v>
       </c>
       <c r="C68" t="s">
         <v>493</v>
@@ -11776,32 +12381,32 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3275</v>
+        <v>724</v>
       </c>
       <c r="B69" t="s">
-        <v>3274</v>
+        <v>3113</v>
       </c>
       <c r="C69" t="s">
-        <v>1098</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3234</v>
+        <v>1100</v>
       </c>
       <c r="B70" t="s">
-        <v>1222</v>
+        <v>3241</v>
       </c>
       <c r="C70" t="s">
-        <v>493</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1227</v>
+        <v>796</v>
       </c>
       <c r="B71" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="C71" t="s">
         <v>493</v>
@@ -11809,54 +12414,54 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3118</v>
+        <v>798</v>
       </c>
       <c r="B72" t="s">
-        <v>3119</v>
+        <v>799</v>
       </c>
       <c r="C72" t="s">
-        <v>3121</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3200</v>
+        <v>1215</v>
       </c>
       <c r="B73" t="s">
-        <v>3201</v>
+        <v>3235</v>
       </c>
       <c r="C73" t="s">
-        <v>830</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1352</v>
+        <v>3275</v>
       </c>
       <c r="B74" t="s">
-        <v>1347</v>
+        <v>3274</v>
       </c>
       <c r="C74" t="s">
-        <v>493</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3221</v>
+        <v>3234</v>
       </c>
       <c r="B75" t="s">
-        <v>3213</v>
+        <v>1222</v>
       </c>
       <c r="C75" t="s">
-        <v>3214</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3193</v>
+        <v>1227</v>
       </c>
       <c r="B76" t="s">
-        <v>3192</v>
+        <v>3115</v>
       </c>
       <c r="C76" t="s">
         <v>493</v>
@@ -11864,32 +12469,32 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>3174</v>
+        <v>3118</v>
       </c>
       <c r="B77" t="s">
-        <v>3152</v>
+        <v>3119</v>
       </c>
       <c r="C77" t="s">
-        <v>3153</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3189</v>
+        <v>3200</v>
       </c>
       <c r="B78" t="s">
-        <v>3177</v>
+        <v>3201</v>
       </c>
       <c r="C78" t="s">
-        <v>1098</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1334</v>
+        <v>1352</v>
       </c>
       <c r="B79" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="C79" t="s">
         <v>493</v>
@@ -11897,21 +12502,21 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>811</v>
+        <v>3221</v>
       </c>
       <c r="B80" t="s">
-        <v>1362</v>
+        <v>3213</v>
       </c>
       <c r="C80" t="s">
-        <v>493</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1353</v>
+        <v>3193</v>
       </c>
       <c r="B81" t="s">
-        <v>1354</v>
+        <v>3192</v>
       </c>
       <c r="C81" t="s">
         <v>493</v>
@@ -11919,28 +12524,83 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1356</v>
+        <v>3174</v>
       </c>
       <c r="B82" t="s">
-        <v>1359</v>
+        <v>3152</v>
       </c>
       <c r="C82" t="s">
-        <v>493</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>811</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C85" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C86" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C87" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>1360</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>1361</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" t="s">
         <v>493</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C83">
+  <autoFilter ref="A1:C88">
     <sortState ref="A2:C33">
       <sortCondition ref="C1"/>
     </sortState>
@@ -11953,18 +12613,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1746"/>
+  <dimension ref="A1:G1834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1708" workbookViewId="0">
-      <selection activeCell="E1725" sqref="E1725"/>
+    <sheetView topLeftCell="A1814" workbookViewId="0">
+      <selection activeCell="G1781" sqref="G1781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" customWidth="1"/>
@@ -41878,6 +42538,1550 @@
         <v>3220</v>
       </c>
     </row>
+    <row r="1747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1747" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1748" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1749" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1750" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1751" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>3335</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1752" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1753" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>3339</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1754" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1755" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1756" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1757" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1758" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1759" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1760" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1761" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1762" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>3352</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1763" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1764" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1765" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1766" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>586</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1767" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1768" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>678</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1769" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1770" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1771" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1772" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1773" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1774" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>3380</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1775" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1776" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>3384</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1777" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1778" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1779" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1780" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1781" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>907</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1782" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1783" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>3448</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>3394</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1785" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>3450</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1786" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>3451</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1787" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1788" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1789" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>3400</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>3507</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1790" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>3455</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1791" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1792" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1793" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>3458</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1794" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1795" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>3460</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1796" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1797" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>3408</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1798" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>3409</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>3463</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1799" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>3464</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1800" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1801" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>3466</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>3413</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1803" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>3468</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1804" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1805" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>3470</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1806" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1807" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1808" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1809" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1810" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1811" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1812" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1813" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1814" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1815" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1816" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1817" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1818" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>3483</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>3434</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1820" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1821" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1822" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1823" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1824" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1825" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1826" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1827" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1828" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1829" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>826</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1830" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1831" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>3447</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1832" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>3515</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1833" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>3485</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1834" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>3516</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/WindDB2Info.xlsx
+++ b/Resource/WindDB2Info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9515" uniqueCount="3536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9516" uniqueCount="3536">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10162,10 +10162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国A股交易日历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本次标准评级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11322,6 +11318,10 @@
   </si>
   <si>
     <t>涨跌幅(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSE: 上交所, SZSE: 深交所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11697,8 +11697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11735,7 +11735,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3200</v>
+        <v>682</v>
       </c>
       <c r="B3" t="s">
         <v>683</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="B4" t="s">
         <v>786</v>
@@ -11757,10 +11757,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B5" t="s">
         <v>3281</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3282</v>
       </c>
       <c r="C5" t="s">
         <v>474</v>
@@ -11768,10 +11768,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B6" t="s">
         <v>3308</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3309</v>
       </c>
       <c r="C6" t="s">
         <v>474</v>
@@ -11779,13 +11779,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B7" t="s">
         <v>3212</v>
       </c>
-      <c r="B7" t="s">
-        <v>3213</v>
-      </c>
       <c r="C7" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11812,10 +11812,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B10" t="s">
         <v>3339</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3340</v>
       </c>
       <c r="C10" t="s">
         <v>474</v>
@@ -11823,10 +11823,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="B11" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="C11" t="s">
         <v>474</v>
@@ -11834,10 +11834,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B12" t="s">
         <v>3452</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3453</v>
       </c>
       <c r="C12" t="s">
         <v>474</v>
@@ -11845,68 +11845,68 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B13" t="s">
         <v>3237</v>
       </c>
-      <c r="B13" t="s">
-        <v>3238</v>
-      </c>
       <c r="C13" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B14" t="s">
         <v>3244</v>
       </c>
-      <c r="B14" t="s">
-        <v>3245</v>
-      </c>
       <c r="C14" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B15" t="s">
         <v>3247</v>
       </c>
-      <c r="B15" t="s">
-        <v>3248</v>
-      </c>
       <c r="C15" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B16" t="s">
         <v>3251</v>
       </c>
-      <c r="B16" t="s">
-        <v>3252</v>
-      </c>
       <c r="C16" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B17" t="s">
         <v>3256</v>
       </c>
-      <c r="B17" t="s">
-        <v>3257</v>
-      </c>
       <c r="C17" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B18" t="s">
         <v>3261</v>
       </c>
-      <c r="B18" t="s">
-        <v>3262</v>
-      </c>
       <c r="C18" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -11931,7 +11931,7 @@
         <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11947,10 +11947,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B22" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="C22" t="s">
         <v>474</v>
@@ -12101,10 +12101,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B36" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C36" t="s">
         <v>3196</v>
@@ -12112,10 +12112,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="B37" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="C37" t="s">
         <v>1233</v>
@@ -12126,7 +12126,7 @@
         <v>3198</v>
       </c>
       <c r="B38" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="C38" t="s">
         <v>3197</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="B48" t="s">
         <v>231</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B57" t="s">
         <v>1053</v>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="B62" t="s">
         <v>709</v>
@@ -12519,10 +12519,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="B74" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="C74" t="s">
         <v>1055</v>
@@ -12698,8 +12698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B247" sqref="B247"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -12730,7 +12730,7 @@
         <v>1217</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="G1" t="s">
         <v>580</v>
@@ -12795,7 +12795,7 @@
         <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -12808,7 +12808,7 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -12816,7 +12816,7 @@
         <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -12829,7 +12829,7 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -12837,7 +12837,7 @@
         <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -12858,7 +12858,7 @@
         <v>247</v>
       </c>
       <c r="B8" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -12871,7 +12871,7 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12879,7 +12879,7 @@
         <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -12892,7 +12892,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12900,7 +12900,7 @@
         <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -12913,7 +12913,7 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -12921,7 +12921,7 @@
         <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12978,7 +12978,7 @@
         <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -12996,7 +12996,7 @@
         <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -13014,7 +13014,7 @@
         <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -13032,7 +13032,7 @@
         <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="F21"/>
       <c r="G21" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -13760,7 +13760,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B58" t="s">
         <v>171</v>
@@ -13772,118 +13772,118 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="F58"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C59" t="s">
         <v>3513</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3506</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3514</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="F59"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B60" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="C60" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="D60" t="s">
         <v>813</v>
       </c>
       <c r="E60" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B61" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C61" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="F61"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B62" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C62" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="D62" t="s">
         <v>891</v>
       </c>
       <c r="E62" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B63" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C63" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="D63" t="s">
         <v>884</v>
       </c>
       <c r="E63" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="B64" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C64" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="D64" t="s">
         <v>813</v>
       </c>
       <c r="E64" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="F64"/>
     </row>
@@ -16916,7 +16916,7 @@
         <v>221</v>
       </c>
       <c r="B229" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C230" t="s">
         <v>10</v>
@@ -16952,7 +16952,7 @@
         <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C231" t="s">
         <v>11</v>
@@ -16970,7 +16970,7 @@
         <v>221</v>
       </c>
       <c r="B232" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
@@ -16988,7 +16988,7 @@
         <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -17006,7 +17006,7 @@
         <v>221</v>
       </c>
       <c r="B234" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -17024,7 +17024,7 @@
         <v>221</v>
       </c>
       <c r="B235" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="C235" t="s">
         <v>15</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="B238" t="s">
         <v>171</v>
@@ -17132,7 +17132,7 @@
         <v>223</v>
       </c>
       <c r="B241" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
@@ -17150,7 +17150,7 @@
         <v>223</v>
       </c>
       <c r="B242" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="C242" t="s">
         <v>10</v>
@@ -17168,7 +17168,7 @@
         <v>223</v>
       </c>
       <c r="B243" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="C243" t="s">
         <v>11</v>
@@ -17186,7 +17186,7 @@
         <v>223</v>
       </c>
       <c r="B244" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
@@ -17204,7 +17204,7 @@
         <v>223</v>
       </c>
       <c r="B245" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -17222,7 +17222,7 @@
         <v>223</v>
       </c>
       <c r="B246" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
@@ -17240,7 +17240,7 @@
         <v>223</v>
       </c>
       <c r="B247" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C247" t="s">
         <v>15</v>
@@ -18041,7 +18041,7 @@
         <v>25</v>
       </c>
       <c r="E291" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="F291" s="2">
         <v>3</v>
@@ -18136,7 +18136,7 @@
         <v>3084</v>
       </c>
       <c r="F296" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -18426,7 +18426,7 @@
         <v>25</v>
       </c>
       <c r="E312" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="F312" s="2">
         <v>3</v>
@@ -18570,7 +18570,7 @@
         <v>3084</v>
       </c>
       <c r="F319" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -18902,7 +18902,7 @@
         <v>25</v>
       </c>
       <c r="E337" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="F337" s="2">
         <v>3</v>
@@ -19141,7 +19141,7 @@
         <v>3084</v>
       </c>
       <c r="F350" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -19380,6 +19380,9 @@
         <v>1230</v>
       </c>
       <c r="F363"/>
+      <c r="G363" t="s">
+        <v>3535</v>
+      </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
@@ -21228,10 +21231,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B466" t="s">
         <v>3232</v>
-      </c>
-      <c r="B466" t="s">
-        <v>3233</v>
       </c>
       <c r="C466" t="s">
         <v>794</v>
@@ -25287,7 +25290,7 @@
         <v>1246</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
@@ -25415,7 +25418,7 @@
         <v>1245</v>
       </c>
       <c r="F695" s="2" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
@@ -25489,7 +25492,7 @@
         <v>1245</v>
       </c>
       <c r="F699" s="2" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
@@ -25743,7 +25746,7 @@
         <v>1280</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
@@ -25907,12 +25910,12 @@
         <v>1280</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="B723" t="s">
         <v>1287</v>
@@ -25927,10 +25930,10 @@
         <v>1289</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="G723" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
@@ -39955,7 +39958,7 @@
       </c>
       <c r="F1502"/>
       <c r="G1502" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
@@ -41688,7 +41691,7 @@
         <v>2929</v>
       </c>
       <c r="B1599" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C1599" t="s">
         <v>2939</v>
@@ -42150,10 +42153,10 @@
         <v>1280</v>
       </c>
       <c r="F1624" s="2" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="G1624" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1625" spans="1:7" x14ac:dyDescent="0.25">
@@ -42494,7 +42497,7 @@
         <v>2745</v>
       </c>
       <c r="B1644" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C1644" t="s">
         <v>3032</v>
@@ -42758,7 +42761,7 @@
         <v>1221</v>
       </c>
       <c r="F1658" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.25">
@@ -43255,7 +43258,7 @@
         <v>1245</v>
       </c>
       <c r="F1685" s="2" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
@@ -43575,10 +43578,10 @@
     </row>
     <row r="1703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1703" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C1703" t="s">
         <v>2</v>
@@ -43587,37 +43590,37 @@
         <v>3</v>
       </c>
       <c r="E1703" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="F1703"/>
     </row>
     <row r="1704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1704" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="C1704" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D1704" t="s">
         <v>4</v>
       </c>
       <c r="E1704" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="F1704"/>
       <c r="G1704" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="1705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1705" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="C1705" t="s">
         <v>240</v>
@@ -43632,10 +43635,10 @@
     </row>
     <row r="1706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1706" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="C1706" t="s">
         <v>241</v>
@@ -43647,51 +43650,51 @@
         <v>1232</v>
       </c>
       <c r="F1706" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B1707" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>3216</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E1707" t="s">
         <v>3218</v>
-      </c>
-      <c r="C1707" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D1707" t="s">
-        <v>3222</v>
-      </c>
-      <c r="E1707" t="s">
-        <v>3219</v>
       </c>
       <c r="F1707"/>
     </row>
     <row r="1708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B1708" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="C1708" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D1708" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E1708" t="s">
         <v>3223</v>
-      </c>
-      <c r="E1708" t="s">
-        <v>3224</v>
       </c>
       <c r="F1708"/>
     </row>
     <row r="1709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1709" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1709" t="s">
         <v>2</v>
@@ -43700,36 +43703,36 @@
         <v>3</v>
       </c>
       <c r="E1709" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1709"/>
     </row>
     <row r="1710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1710" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="C1710" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="D1710" t="s">
         <v>215</v>
       </c>
       <c r="E1710" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1710" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="G1710" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1711" t="s">
         <v>210</v>
@@ -43741,13 +43744,13 @@
         <v>4</v>
       </c>
       <c r="E1711" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1711"/>
     </row>
     <row r="1712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1712" t="s">
         <v>212</v>
@@ -43759,13 +43762,13 @@
         <v>4</v>
       </c>
       <c r="E1712" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1712"/>
     </row>
     <row r="1713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="B1713" t="s">
         <v>214</v>
@@ -43777,7 +43780,7 @@
         <v>25</v>
       </c>
       <c r="E1713" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1713"/>
       <c r="G1713" t="s">
@@ -43786,10 +43789,10 @@
     </row>
     <row r="1714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1714" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1714" t="s">
         <v>2</v>
@@ -43798,36 +43801,36 @@
         <v>3</v>
       </c>
       <c r="E1714" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1714"/>
     </row>
     <row r="1715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1715" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="C1715" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="D1715" t="s">
         <v>215</v>
       </c>
       <c r="E1715" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1715" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="G1715" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1716" t="s">
         <v>210</v>
@@ -43839,13 +43842,13 @@
         <v>4</v>
       </c>
       <c r="E1716" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1716"/>
     </row>
     <row r="1717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1717" t="s">
         <v>212</v>
@@ -43857,13 +43860,13 @@
         <v>4</v>
       </c>
       <c r="E1717" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1717"/>
     </row>
     <row r="1718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B1718" t="s">
         <v>214</v>
@@ -43875,7 +43878,7 @@
         <v>25</v>
       </c>
       <c r="E1718" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1718"/>
       <c r="G1718" t="s">
@@ -43884,10 +43887,10 @@
     </row>
     <row r="1719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1719" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1719" t="s">
         <v>2</v>
@@ -43896,36 +43899,36 @@
         <v>3</v>
       </c>
       <c r="E1719" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1719"/>
     </row>
     <row r="1720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1720" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="C1720" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="D1720" t="s">
         <v>215</v>
       </c>
       <c r="E1720" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1720" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="G1720" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1721" t="s">
         <v>210</v>
@@ -43937,13 +43940,13 @@
         <v>4</v>
       </c>
       <c r="E1721" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1721"/>
     </row>
     <row r="1722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1722" t="s">
         <v>212</v>
@@ -43955,13 +43958,13 @@
         <v>4</v>
       </c>
       <c r="E1722" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1722"/>
     </row>
     <row r="1723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="B1723" t="s">
         <v>214</v>
@@ -43973,7 +43976,7 @@
         <v>25</v>
       </c>
       <c r="E1723" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1723"/>
       <c r="G1723" t="s">
@@ -43982,10 +43985,10 @@
     </row>
     <row r="1724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1724" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1724" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1724" t="s">
         <v>2</v>
@@ -43994,36 +43997,36 @@
         <v>3</v>
       </c>
       <c r="E1724" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1724"/>
     </row>
     <row r="1725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1725" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1725" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="C1725" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="D1725" t="s">
         <v>215</v>
       </c>
       <c r="E1725" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1725" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="G1725" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1726" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1726" t="s">
         <v>210</v>
@@ -44035,13 +44038,13 @@
         <v>4</v>
       </c>
       <c r="E1726" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1726"/>
     </row>
     <row r="1727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1727" t="s">
         <v>212</v>
@@ -44053,13 +44056,13 @@
         <v>4</v>
       </c>
       <c r="E1727" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1727"/>
     </row>
     <row r="1728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B1728" t="s">
         <v>214</v>
@@ -44071,7 +44074,7 @@
         <v>25</v>
       </c>
       <c r="E1728" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1728"/>
       <c r="G1728" t="s">
@@ -44080,10 +44083,10 @@
     </row>
     <row r="1729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1729" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1729" t="s">
         <v>2</v>
@@ -44092,36 +44095,36 @@
         <v>3</v>
       </c>
       <c r="E1729" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1729"/>
     </row>
     <row r="1730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1730" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1730" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="C1730" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="D1730" t="s">
         <v>215</v>
       </c>
       <c r="E1730" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1730" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="G1730" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="1731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1731" t="s">
         <v>210</v>
@@ -44133,13 +44136,13 @@
         <v>4</v>
       </c>
       <c r="E1731" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1731"/>
     </row>
     <row r="1732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1732" t="s">
         <v>212</v>
@@ -44151,13 +44154,13 @@
         <v>4</v>
       </c>
       <c r="E1732" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1732"/>
     </row>
     <row r="1733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B1733" t="s">
         <v>214</v>
@@ -44169,7 +44172,7 @@
         <v>25</v>
       </c>
       <c r="E1733" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1733"/>
       <c r="G1733" t="s">
@@ -44178,10 +44181,10 @@
     </row>
     <row r="1734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1734" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="C1734" t="s">
         <v>2</v>
@@ -44190,36 +44193,36 @@
         <v>3</v>
       </c>
       <c r="E1734" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="F1734"/>
     </row>
     <row r="1735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1735" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1735" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C1735" t="s">
         <v>3263</v>
-      </c>
-      <c r="C1735" t="s">
-        <v>3264</v>
       </c>
       <c r="D1735" t="s">
         <v>215</v>
       </c>
       <c r="E1735" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="F1735" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="G1735" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1736" t="s">
         <v>210</v>
@@ -44231,13 +44234,13 @@
         <v>4</v>
       </c>
       <c r="E1736" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="F1736"/>
     </row>
     <row r="1737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1737" t="s">
         <v>212</v>
@@ -44249,13 +44252,13 @@
         <v>4</v>
       </c>
       <c r="E1737" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="F1737"/>
     </row>
     <row r="1738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B1738" t="s">
         <v>214</v>
@@ -44267,7 +44270,7 @@
         <v>25</v>
       </c>
       <c r="E1738" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="F1738"/>
       <c r="G1738" t="s">
@@ -44276,7 +44279,7 @@
     </row>
     <row r="1739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1739" t="s">
         <v>171</v>
@@ -44288,13 +44291,13 @@
         <v>3</v>
       </c>
       <c r="E1739" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="F1739"/>
     </row>
     <row r="1740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1740" t="s">
         <v>773</v>
@@ -44309,7 +44312,7 @@
     </row>
     <row r="1741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1741" t="s">
         <v>644</v>
@@ -44321,107 +44324,107 @@
         <v>4</v>
       </c>
       <c r="E1741" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F1741" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="1742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1742" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C1742" t="s">
         <v>3286</v>
-      </c>
-      <c r="C1742" t="s">
-        <v>3287</v>
       </c>
       <c r="D1742" t="s">
         <v>4</v>
       </c>
       <c r="E1742" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F1742"/>
     </row>
     <row r="1743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1743" t="s">
         <v>3283</v>
       </c>
-      <c r="B1743" t="s">
+      <c r="C1743" t="s">
         <v>3284</v>
-      </c>
-      <c r="C1743" t="s">
-        <v>3285</v>
       </c>
       <c r="D1743" t="s">
         <v>813</v>
       </c>
       <c r="E1743" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1744" t="s">
         <v>2266</v>
       </c>
       <c r="C1744" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="D1744" t="s">
         <v>813</v>
       </c>
       <c r="E1744" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1745" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1745" t="s">
         <v>3289</v>
-      </c>
-      <c r="C1745" t="s">
-        <v>3290</v>
       </c>
       <c r="D1745" t="s">
         <v>813</v>
       </c>
       <c r="E1745" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1746" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C1746" t="s">
         <v>3291</v>
-      </c>
-      <c r="C1746" t="s">
-        <v>3292</v>
       </c>
       <c r="D1746" t="s">
         <v>635</v>
       </c>
       <c r="E1746" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1747" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C1747" t="s">
         <v>3293</v>
-      </c>
-      <c r="C1747" t="s">
-        <v>3294</v>
       </c>
       <c r="D1747" t="s">
         <v>813</v>
@@ -44430,43 +44433,43 @@
     </row>
     <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1748" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1748" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C1748" t="s">
         <v>3295</v>
-      </c>
-      <c r="C1748" t="s">
-        <v>3296</v>
       </c>
       <c r="D1748" t="s">
         <v>246</v>
       </c>
       <c r="E1748" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1748"/>
     </row>
     <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B1749" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C1749" t="s">
         <v>3297</v>
       </c>
-      <c r="C1749" t="s">
-        <v>3298</v>
-      </c>
       <c r="D1749" t="s">
         <v>5</v>
       </c>
       <c r="E1749" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1749"/>
     </row>
     <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1750" t="s">
         <v>171</v>
@@ -44478,16 +44481,16 @@
         <v>3</v>
       </c>
       <c r="E1750" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="F1750"/>
     </row>
     <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1751" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="C1751" t="s">
         <v>799</v>
@@ -44499,25 +44502,25 @@
     </row>
     <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1752" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1752" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C1752" t="s">
         <v>3286</v>
-      </c>
-      <c r="C1752" t="s">
-        <v>3287</v>
       </c>
       <c r="D1752" t="s">
         <v>4</v>
       </c>
       <c r="E1752" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F1752"/>
     </row>
     <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1753" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1753" t="s">
         <v>644</v>
@@ -44529,69 +44532,69 @@
         <v>4</v>
       </c>
       <c r="E1753" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F1753" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1754" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="C1754" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="D1754" t="s">
         <v>5</v>
       </c>
       <c r="E1754" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="F1754"/>
     </row>
     <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1755" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1755" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="C1755" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="D1755" t="s">
         <v>246</v>
       </c>
       <c r="E1755" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="F1755"/>
     </row>
     <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1756" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="C1756" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="D1756" t="s">
         <v>1144</v>
       </c>
       <c r="E1756" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="F1756"/>
     </row>
     <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1757" t="s">
         <v>171</v>
@@ -44603,211 +44606,211 @@
         <v>3</v>
       </c>
       <c r="E1757" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="F1757"/>
     </row>
     <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1758" t="s">
         <v>545</v>
       </c>
       <c r="C1758" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="D1758" t="s">
         <v>4</v>
       </c>
       <c r="E1758" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F1758"/>
     </row>
     <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1759" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="C1759" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="D1759" t="s">
         <v>3</v>
       </c>
       <c r="E1759" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1759"/>
     </row>
     <row r="1760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1760" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="C1760" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="D1760" t="s">
         <v>635</v>
       </c>
       <c r="E1760" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1760"/>
     </row>
     <row r="1761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1761" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1761" t="s">
         <v>3323</v>
       </c>
-      <c r="C1761" t="s">
-        <v>3322</v>
-      </c>
-      <c r="D1761" t="s">
-        <v>3324</v>
-      </c>
       <c r="E1761" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1761"/>
     </row>
     <row r="1762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1762" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="C1762" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="D1762" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1762" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1762"/>
     </row>
     <row r="1763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1763" t="s">
         <v>587</v>
       </c>
       <c r="C1763" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="D1763" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1763" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1763"/>
     </row>
     <row r="1764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1764" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="C1764" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="D1764" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1764" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1764"/>
     </row>
     <row r="1765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1765" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="C1765" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="D1765" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1765" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1765"/>
     </row>
     <row r="1766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1766" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="C1766" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="D1766" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1766" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1766"/>
     </row>
     <row r="1767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1767" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1767" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="C1767" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="D1767" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="E1767" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1767"/>
     </row>
     <row r="1768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1768" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1768" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C1768" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="D1768" t="s">
         <v>26</v>
       </c>
       <c r="E1768" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1768"/>
     </row>
     <row r="1769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1769" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1769" t="s">
         <v>171</v>
@@ -44819,55 +44822,55 @@
         <v>3</v>
       </c>
       <c r="E1769" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="F1769"/>
     </row>
     <row r="1770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="C1770" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D1770" t="s">
         <v>4</v>
       </c>
       <c r="E1770" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F1770"/>
       <c r="G1770" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1771" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1771" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="C1771" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="D1771" t="s">
         <v>4</v>
       </c>
       <c r="E1771" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F1771"/>
       <c r="G1771" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1772" t="s">
         <v>644</v>
@@ -44879,16 +44882,16 @@
         <v>4</v>
       </c>
       <c r="E1772" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F1772"/>
       <c r="G1772" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1773" t="s">
         <v>214</v>
@@ -44901,15 +44904,15 @@
       </c>
       <c r="F1773"/>
       <c r="G1773" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1774" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="C1774" t="s">
         <v>2213</v>
@@ -44918,907 +44921,907 @@
         <v>5</v>
       </c>
       <c r="E1774" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1774"/>
     </row>
     <row r="1775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1775" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="C1775" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="D1775" t="s">
         <v>5</v>
       </c>
       <c r="E1775" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1775"/>
       <c r="G1775" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="1776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1776" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="C1776" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="D1776" t="s">
         <v>5</v>
       </c>
       <c r="E1776" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1776"/>
       <c r="G1776" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1777" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="C1777" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="D1777" t="s">
         <v>5</v>
       </c>
       <c r="E1777" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1777"/>
       <c r="G1777" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="1778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1778" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="C1778" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="D1778" t="s">
         <v>5</v>
       </c>
       <c r="E1778" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1778"/>
       <c r="G1778" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1779" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="C1779" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="D1779" t="s">
         <v>5</v>
       </c>
       <c r="E1779" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1779"/>
       <c r="G1779" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1780" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1780" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="C1780" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="D1780" t="s">
         <v>5</v>
       </c>
       <c r="E1780" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1780"/>
       <c r="G1780" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1781" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1781" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="C1781" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="D1781" t="s">
         <v>5</v>
       </c>
       <c r="E1781" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1781"/>
       <c r="G1781" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1782" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="C1782" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="D1782" t="s">
         <v>5</v>
       </c>
       <c r="E1782" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1782"/>
     </row>
     <row r="1783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1783" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="C1783" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="D1783" t="s">
         <v>5</v>
       </c>
       <c r="E1783" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1783"/>
     </row>
     <row r="1784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1784" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="C1784" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="D1784" t="s">
         <v>5</v>
       </c>
       <c r="E1784" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1784"/>
     </row>
     <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1785" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="C1785" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="D1785" t="s">
         <v>5</v>
       </c>
       <c r="E1785" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1785"/>
     </row>
     <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1786" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="C1786" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="D1786" t="s">
         <v>5</v>
       </c>
       <c r="E1786" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1786"/>
       <c r="G1786" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="1787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1787" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="C1787" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="D1787" t="s">
         <v>5</v>
       </c>
       <c r="E1787" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1787"/>
     </row>
     <row r="1788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1788" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="C1788" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="D1788" t="s">
         <v>5</v>
       </c>
       <c r="E1788" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1788"/>
       <c r="G1788" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1789" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="C1789" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="D1789" t="s">
         <v>5</v>
       </c>
       <c r="E1789" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1789"/>
     </row>
     <row r="1790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1790" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="C1790" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="D1790" t="s">
         <v>5</v>
       </c>
       <c r="E1790" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1790"/>
     </row>
     <row r="1791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1791" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="C1791" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="D1791" t="s">
         <v>5</v>
       </c>
       <c r="E1791" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1791"/>
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1792" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="C1792" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="D1792" t="s">
         <v>5</v>
       </c>
       <c r="E1792" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1792"/>
       <c r="G1792" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1793" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="C1793" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="D1793" t="s">
         <v>5</v>
       </c>
       <c r="E1793" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1793"/>
       <c r="G1793" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1794" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="C1794" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="D1794" t="s">
         <v>5</v>
       </c>
       <c r="E1794" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1794"/>
       <c r="G1794" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1795" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="C1795" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="D1795" t="s">
         <v>5</v>
       </c>
       <c r="E1795" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1795"/>
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1796" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="C1796" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="D1796" t="s">
         <v>5</v>
       </c>
       <c r="E1796" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1796"/>
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1797" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="C1797" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="D1797" t="s">
         <v>5</v>
       </c>
       <c r="E1797" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1797"/>
       <c r="G1797" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1798" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="C1798" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="D1798" t="s">
         <v>5</v>
       </c>
       <c r="E1798" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1798"/>
     </row>
     <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1799" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="C1799" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="D1799" t="s">
         <v>5</v>
       </c>
       <c r="E1799" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1799"/>
     </row>
     <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1800" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="C1800" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="D1800" t="s">
         <v>5</v>
       </c>
       <c r="E1800" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1800"/>
     </row>
     <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1801" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="C1801" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="D1801" t="s">
         <v>5</v>
       </c>
       <c r="E1801" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1801"/>
     </row>
     <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1802" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="C1802" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="D1802" t="s">
         <v>5</v>
       </c>
       <c r="E1802" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1802"/>
     </row>
     <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1803" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="C1803" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="D1803" t="s">
         <v>5</v>
       </c>
       <c r="E1803" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1803"/>
     </row>
     <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1804" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="C1804" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="D1804" t="s">
         <v>5</v>
       </c>
       <c r="E1804" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1804"/>
     </row>
     <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1805" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="C1805" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="D1805" t="s">
         <v>5</v>
       </c>
       <c r="E1805" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1805"/>
       <c r="G1805" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1806" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="C1806" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="D1806" t="s">
         <v>5</v>
       </c>
       <c r="E1806" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1806"/>
       <c r="G1806" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1807" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C1807" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="D1807" t="s">
         <v>5</v>
       </c>
       <c r="E1807" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1807"/>
     </row>
     <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1808" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="C1808" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="D1808" t="s">
         <v>5</v>
       </c>
       <c r="E1808" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1808"/>
       <c r="G1808" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1809" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="C1809" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="D1809" t="s">
         <v>5</v>
       </c>
       <c r="E1809" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1809"/>
     </row>
     <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1810" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="C1810" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="D1810" t="s">
         <v>5</v>
       </c>
       <c r="E1810" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1810"/>
     </row>
     <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1811" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D1811" t="s">
         <v>3386</v>
       </c>
-      <c r="C1811" t="s">
-        <v>3437</v>
-      </c>
-      <c r="D1811" t="s">
-        <v>3387</v>
-      </c>
       <c r="E1811" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1811"/>
     </row>
     <row r="1812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1812" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="C1812" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="D1812" t="s">
         <v>5</v>
       </c>
       <c r="E1812" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1812"/>
     </row>
     <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1813" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="C1813" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="D1813" t="s">
         <v>5</v>
       </c>
       <c r="E1813" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1813"/>
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1814" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C1814" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="D1814" t="s">
         <v>5</v>
       </c>
       <c r="E1814" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1814"/>
     </row>
     <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1815" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="C1815" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="D1815" t="s">
         <v>5</v>
       </c>
       <c r="E1815" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1815"/>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1816" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C1816" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="D1816" t="s">
         <v>5</v>
       </c>
       <c r="E1816" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1816"/>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1817" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="C1817" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="D1817" t="s">
         <v>5</v>
       </c>
       <c r="E1817" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1817"/>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1818" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C1818" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="D1818" t="s">
         <v>5</v>
       </c>
       <c r="E1818" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1818"/>
     </row>
     <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1819" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="C1819" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="D1819" t="s">
         <v>5</v>
       </c>
       <c r="E1819" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1819"/>
     </row>
     <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1820" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="C1820" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="D1820" t="s">
         <v>5</v>
       </c>
       <c r="E1820" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1820"/>
     </row>
     <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="B1821" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="C1821" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="D1821" t="s">
         <v>783</v>
       </c>
       <c r="E1821" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="F1821"/>
     </row>
     <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1822" t="s">
         <v>171</v>
@@ -45830,67 +45833,67 @@
         <v>3</v>
       </c>
       <c r="E1822" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="F1822"/>
     </row>
     <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1823" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="C1823" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="D1823" t="s">
         <v>4</v>
       </c>
       <c r="E1823" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="F1823"/>
     </row>
     <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1824" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="C1824" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="D1824" t="s">
         <v>5</v>
       </c>
       <c r="E1824" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="F1824"/>
     </row>
     <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1825" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="C1825" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="D1825" t="s">
         <v>4</v>
       </c>
       <c r="E1825" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="F1825"/>
     </row>
     <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="B1826" t="s">
         <v>644</v>
@@ -45902,7 +45905,7 @@
         <v>4</v>
       </c>
       <c r="E1826" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F1826"/>
     </row>
